--- a/9/9.xlsx
+++ b/9/9.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>D</t>
   </si>
@@ -44,12 +44,21 @@
   <si>
     <t xml:space="preserve">Pi = </t>
   </si>
+  <si>
+    <t xml:space="preserve"> Теоретическая погрешность</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Реальная погрешность</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,7 +87,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -127,11 +136,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -140,6 +276,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -158,24 +317,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6202,58 +6349,43 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="297790848"/>
-        <c:axId val="297791424"/>
+        <c:dLbls/>
+        <c:axId val="103186432"/>
+        <c:axId val="103187968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297790848"/>
+        <c:axId val="103186432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="297791424"/>
+        <c:crossAx val="103187968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297791424"/>
+        <c:axId val="103187968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="297790848"/>
+        <c:crossAx val="103186432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6409,7 +6541,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6444,7 +6575,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6620,16 +6750,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -6646,7 +6776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11">
       <c r="B3">
         <v>0.18113438785546501</v>
       </c>
@@ -6670,7 +6800,7 @@
         <v>514.11674747639279</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="B4">
         <v>0.77802649701697801</v>
       </c>
@@ -6694,7 +6824,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="B5">
         <v>0.167571888880724</v>
       </c>
@@ -6713,7 +6843,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6">
         <v>0.75625137778711105</v>
       </c>
@@ -6737,7 +6867,7 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11">
       <c r="B7">
         <v>0.43721264435243701</v>
       </c>
@@ -6764,7 +6894,7 @@
         <v>3.1415926500000002</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11">
       <c r="B8">
         <v>0.71460214922487997</v>
       </c>
@@ -6781,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9">
         <v>0.77754388989515</v>
       </c>
@@ -6798,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11">
       <c r="B10">
         <v>0.22929607835258101</v>
       </c>
@@ -6814,8 +6944,17 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8">
+        <f>K7-I7</f>
+        <v>2.7592650000000329E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1">
       <c r="B11">
         <v>0.21082119296493601</v>
       </c>
@@ -6831,8 +6970,16 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11">
+        <v>4.1079909999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" thickBot="1">
       <c r="B12">
         <v>0.125435682264187</v>
       </c>
@@ -6848,8 +6995,15 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="12" t="str">
+        <f>IF(K10&lt;K11,"Реальная меньше","Теоретическая меньше")</f>
+        <v>Реальная меньше</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13">
         <v>0.70352260464788696</v>
       </c>
@@ -6866,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14">
         <v>5.3740611663406698E-2</v>
       </c>
@@ -6883,7 +7037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15">
         <v>0.39133997149914101</v>
       </c>
@@ -6900,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16">
         <v>4.5228302472406702E-2</v>
       </c>
@@ -6917,7 +7071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6">
       <c r="B17">
         <v>0.41503942087447498</v>
       </c>
@@ -6934,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6">
       <c r="B18">
         <v>0.35508791914329102</v>
       </c>
@@ -6951,7 +7105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6">
       <c r="B19">
         <v>0.65161184768692604</v>
       </c>
@@ -6968,7 +7122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6">
       <c r="B20">
         <v>0.84038680831127599</v>
       </c>
@@ -6985,7 +7139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6">
       <c r="B21">
         <v>0.97085908732766601</v>
       </c>
@@ -7002,7 +7156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6">
       <c r="B22">
         <v>0.71277418308073104</v>
       </c>
@@ -7019,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6">
       <c r="B23">
         <v>0.271068556339431</v>
       </c>
@@ -7036,7 +7190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6">
       <c r="B24">
         <v>0.47062632107762697</v>
       </c>
@@ -7053,7 +7207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6">
       <c r="B25">
         <v>0.168759157461739</v>
       </c>
@@ -7070,7 +7224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6">
       <c r="B26">
         <v>0.40921428748938299</v>
       </c>
@@ -7087,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6">
       <c r="B27">
         <v>0.48279821860134198</v>
       </c>
@@ -7104,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6">
       <c r="B28">
         <v>0.377160250883249</v>
       </c>
@@ -7121,7 +7275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6">
       <c r="B29">
         <v>0.65137329664561705</v>
       </c>
@@ -7138,7 +7292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6">
       <c r="B30">
         <v>0.44882388755883801</v>
       </c>
@@ -7155,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6">
       <c r="B31">
         <v>0.51256226949460404</v>
       </c>
@@ -7172,7 +7326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6">
       <c r="B32">
         <v>0.35471506537671199</v>
       </c>
@@ -7189,7 +7343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6">
       <c r="B33">
         <v>0.79081679744996303</v>
       </c>
@@ -7206,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6">
       <c r="B34">
         <v>0.65213998640164506</v>
       </c>
@@ -7223,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6">
       <c r="B35">
         <v>5.7756623096042202E-2</v>
       </c>
@@ -7240,7 +7394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6">
       <c r="B36">
         <v>0.89633923341677701</v>
       </c>
@@ -7257,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6">
       <c r="B37">
         <v>5.25835953723285E-3</v>
       </c>
@@ -7274,7 +7428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6">
       <c r="B38">
         <v>0.48928723695392701</v>
       </c>
@@ -7291,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6">
       <c r="B39">
         <v>0.94974221141125204</v>
       </c>
@@ -7308,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6">
       <c r="B40">
         <v>0.72478321590788497</v>
       </c>
@@ -7325,7 +7479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6">
       <c r="B41">
         <v>0.81547470846314696</v>
       </c>
@@ -7342,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6">
       <c r="B42">
         <v>0.884791411561894</v>
       </c>
@@ -7359,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6">
       <c r="B43">
         <v>0.53688655686629705</v>
       </c>
@@ -7376,7 +7530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6">
       <c r="B44">
         <v>0.62377163229704802</v>
       </c>
@@ -7393,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6">
       <c r="B45">
         <v>0.75337993312741902</v>
       </c>
@@ -7410,7 +7564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6">
       <c r="B46">
         <v>0.32928147392527801</v>
       </c>
@@ -7427,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6">
       <c r="B47">
         <v>0.72364988164455701</v>
       </c>
@@ -7444,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6">
       <c r="B48">
         <v>0.92815382951812797</v>
       </c>
@@ -7461,7 +7615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6">
       <c r="B49">
         <v>0.81739217235664796</v>
       </c>
@@ -7478,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6">
       <c r="B50">
         <v>0.414390922826613</v>
       </c>
@@ -7495,7 +7649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6">
       <c r="B51">
         <v>0.21505637876384701</v>
       </c>
@@ -7512,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6">
       <c r="B52">
         <v>0.33486866102320001</v>
       </c>
@@ -7529,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6">
       <c r="B53">
         <v>5.8259434292362799E-2</v>
       </c>
@@ -7546,7 +7700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6">
       <c r="B54">
         <v>0.29773246475000797</v>
       </c>
@@ -7563,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6">
       <c r="B55">
         <v>0.84777698670559798</v>
       </c>
@@ -7580,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6">
       <c r="B56">
         <v>0.81921377861038902</v>
       </c>
@@ -7597,7 +7751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6">
       <c r="B57">
         <v>0.18859083330703899</v>
       </c>
@@ -7614,7 +7768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6">
       <c r="B58">
         <v>0.30170670481613798</v>
       </c>
@@ -7631,7 +7785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6">
       <c r="B59">
         <v>0.142657592790009</v>
       </c>
@@ -7648,7 +7802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6">
       <c r="B60">
         <v>0.688894965303809</v>
       </c>
@@ -7665,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6">
       <c r="B61">
         <v>0.61819658523905596</v>
       </c>
@@ -7682,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6">
       <c r="B62">
         <v>0.98752254111889703</v>
       </c>
@@ -7699,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6">
       <c r="B63">
         <v>0.64885390048296199</v>
       </c>
@@ -7716,7 +7870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6">
       <c r="B64">
         <v>0.94628264776609305</v>
       </c>
@@ -7733,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6">
       <c r="B65">
         <v>0.76774973762214405</v>
       </c>
@@ -7750,7 +7904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6">
       <c r="B66">
         <v>0.40918579822524498</v>
       </c>
@@ -7767,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6">
       <c r="B67">
         <v>0.70672406697639201</v>
       </c>
@@ -7784,7 +7938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6">
       <c r="B68">
         <v>0.70651207264268301</v>
       </c>
@@ -7801,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6">
       <c r="B69">
         <v>0.27469631661399802</v>
       </c>
@@ -7818,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6">
       <c r="B70">
         <v>0.39498019455882399</v>
       </c>
@@ -7835,7 +7989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6">
       <c r="B71">
         <v>0.53704187607457199</v>
       </c>
@@ -7852,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6">
       <c r="B72">
         <v>0.86549598180852405</v>
       </c>
@@ -7869,7 +8023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6">
       <c r="B73">
         <v>0.64254841090940795</v>
       </c>
@@ -7886,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6">
       <c r="B74">
         <v>0.61518433987050603</v>
       </c>
@@ -7903,7 +8057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6">
       <c r="B75">
         <v>0.92288012991727097</v>
       </c>
@@ -7920,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6">
       <c r="B76">
         <v>0.13986443635616699</v>
       </c>
@@ -7937,7 +8091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6">
       <c r="B77">
         <v>0.40324121820102299</v>
       </c>
@@ -7954,7 +8108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6">
       <c r="B78">
         <v>0.780445615360429</v>
       </c>
@@ -7971,7 +8125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6">
       <c r="B79">
         <v>0.44285402307145399</v>
       </c>
@@ -7988,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6">
       <c r="B80">
         <v>0.79210791573025296</v>
       </c>
@@ -8005,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6">
       <c r="B81">
         <v>0.84203011181972498</v>
       </c>
@@ -8022,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6">
       <c r="B82">
         <v>0.75054909573739503</v>
       </c>
@@ -8039,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6">
       <c r="B83">
         <v>0.97526869940828198</v>
       </c>
@@ -8056,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6">
       <c r="B84">
         <v>0.75246521984046599</v>
       </c>
@@ -8073,7 +8227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6">
       <c r="B85">
         <v>0.50040062581455202</v>
       </c>
@@ -8090,7 +8244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6">
       <c r="B86">
         <v>0.89086748480817002</v>
       </c>
@@ -8107,7 +8261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6">
       <c r="B87">
         <v>0.81857960484861603</v>
       </c>
@@ -8124,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6">
       <c r="B88">
         <v>0.482192628648272</v>
       </c>
@@ -8141,7 +8295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6">
       <c r="B89">
         <v>0.77467803630019305</v>
       </c>
@@ -8158,7 +8312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6">
       <c r="B90">
         <v>0.199244528985867</v>
       </c>
@@ -8175,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6">
       <c r="B91">
         <v>0.948866810910592</v>
       </c>
@@ -8192,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6">
       <c r="B92">
         <v>0.93190432280684599</v>
       </c>
@@ -8209,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6">
       <c r="B93">
         <v>0.63184658939455796</v>
       </c>
@@ -8226,7 +8380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6">
       <c r="B94">
         <v>0.25902527348798299</v>
       </c>
@@ -8243,7 +8397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6">
       <c r="B95">
         <v>0.80924184555405099</v>
       </c>
@@ -8260,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6">
       <c r="B96">
         <v>0.26243731643783502</v>
       </c>
@@ -8277,7 +8431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6">
       <c r="B97">
         <v>0.90804245015692697</v>
       </c>
@@ -8294,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6">
       <c r="B98">
         <v>0.72082132022918</v>
       </c>
@@ -8311,7 +8465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6">
       <c r="B99">
         <v>0.73459793548033303</v>
       </c>
@@ -8328,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6">
       <c r="B100">
         <v>9.4302465324371296E-2</v>
       </c>
@@ -8345,7 +8499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6">
       <c r="B101">
         <v>0.40650458362860298</v>
       </c>
@@ -8362,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6">
       <c r="B102">
         <v>0.199148932998058</v>
       </c>
@@ -8379,7 +8533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6">
       <c r="B103">
         <v>0.39914810873595902</v>
       </c>
@@ -8396,7 +8550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6">
       <c r="B104">
         <v>0.48961965742369501</v>
       </c>
@@ -8413,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6">
       <c r="B105">
         <v>0.25653648799892398</v>
       </c>
@@ -8430,7 +8584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6">
       <c r="B106">
         <v>0.92746947133520297</v>
       </c>
@@ -8447,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6">
       <c r="B107">
         <v>0.32760356102768701</v>
       </c>
@@ -8464,7 +8618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6">
       <c r="B108">
         <v>0.97711076008909803</v>
       </c>
@@ -8481,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6">
       <c r="B109">
         <v>0.51352579352283001</v>
       </c>
@@ -8498,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6">
       <c r="B110">
         <v>0.97396372434422995</v>
       </c>
@@ -8515,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6">
       <c r="B111">
         <v>0.98822552023045596</v>
       </c>
@@ -8532,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:6">
       <c r="B112">
         <v>0.12472870651258899</v>
       </c>
@@ -8549,7 +8703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:6">
       <c r="B113">
         <v>0.23514706846407901</v>
       </c>
@@ -8566,7 +8720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:6">
       <c r="B114">
         <v>0.785475070664297</v>
       </c>
@@ -8583,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:6">
       <c r="B115">
         <v>0.61042467255584598</v>
       </c>
@@ -8600,7 +8754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:6">
       <c r="B116">
         <v>0.62396812922251998</v>
       </c>
@@ -8617,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:6">
       <c r="B117">
         <v>0.18662394369394</v>
       </c>
@@ -8634,7 +8788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:6">
       <c r="B118">
         <v>0.19806735544145301</v>
       </c>
@@ -8651,7 +8805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:6">
       <c r="B119">
         <v>0.18590707924618599</v>
       </c>
@@ -8668,7 +8822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:6">
       <c r="B120">
         <v>0.29560626246747201</v>
       </c>
@@ -8685,7 +8839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:6">
       <c r="B121">
         <v>0.22663176743837399</v>
       </c>
@@ -8702,7 +8856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:6">
       <c r="B122">
         <v>0.16321871849634501</v>
       </c>
@@ -8719,7 +8873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:6">
       <c r="B123">
         <v>0.62870451581125797</v>
       </c>
@@ -8736,7 +8890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:6">
       <c r="B124">
         <v>0.85132668605213802</v>
       </c>
@@ -8753,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:6">
       <c r="B125">
         <v>0.273542120641102</v>
       </c>
@@ -8770,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:6">
       <c r="B126">
         <v>0.27304724989836798</v>
       </c>
@@ -8787,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:6">
       <c r="B127">
         <v>0.29546469853112101</v>
       </c>
@@ -8804,7 +8958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:6">
       <c r="B128">
         <v>0.98635313908314404</v>
       </c>
@@ -8821,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6">
       <c r="B129">
         <v>0.22089733449907001</v>
       </c>
@@ -8838,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6">
       <c r="B130">
         <v>0.493106635568414</v>
       </c>
@@ -8855,7 +9009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:6">
       <c r="B131">
         <v>0.80205543821886105</v>
       </c>
@@ -8872,7 +9026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6">
       <c r="B132">
         <v>0.64901561259776996</v>
       </c>
@@ -8889,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6">
       <c r="B133">
         <v>0.52521385679891597</v>
       </c>
@@ -8906,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:6">
       <c r="B134">
         <v>0.477436478871201</v>
       </c>
@@ -8923,7 +9077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:6">
       <c r="B135">
         <v>0.38158367298781398</v>
       </c>
@@ -8940,7 +9094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:6">
       <c r="B136">
         <v>0.45457251057311499</v>
       </c>
@@ -8957,7 +9111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:6">
       <c r="B137">
         <v>0.98590550381642195</v>
       </c>
@@ -8974,7 +9128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6">
       <c r="B138">
         <v>0.98759006683964801</v>
       </c>
@@ -8991,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:6">
       <c r="B139">
         <v>0.59214648431966299</v>
       </c>
@@ -9008,7 +9162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:6">
       <c r="B140">
         <v>0.90709246053611703</v>
       </c>
@@ -9025,7 +9179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:6">
       <c r="B141">
         <v>0.258908864587166</v>
       </c>
@@ -9042,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:6">
       <c r="B142">
         <v>0.61793476367542999</v>
       </c>
@@ -9059,7 +9213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:6">
       <c r="B143">
         <v>0.153306105391396</v>
       </c>
@@ -9076,7 +9230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:6">
       <c r="B144">
         <v>0.68736185792423998</v>
       </c>
@@ -9093,7 +9247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6">
       <c r="B145">
         <v>0.54984500447923002</v>
       </c>
@@ -9110,7 +9264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6">
       <c r="B146">
         <v>0.37643039070401302</v>
       </c>
@@ -9127,7 +9281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6">
       <c r="B147">
         <v>0.35518975417441401</v>
       </c>
@@ -9144,7 +9298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6">
       <c r="B148">
         <v>0.458470448083309</v>
       </c>
@@ -9161,7 +9315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6">
       <c r="B149">
         <v>0.92714164809079802</v>
       </c>
@@ -9178,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6">
       <c r="B150">
         <v>0.45790071373758501</v>
       </c>
@@ -9195,7 +9349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6">
       <c r="B151">
         <v>0.119512914479978</v>
       </c>
@@ -9212,7 +9366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6">
       <c r="B152">
         <v>5.1704167439877199E-2</v>
       </c>
@@ -9229,7 +9383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6">
       <c r="B153">
         <v>0.87511611299961101</v>
       </c>
@@ -9246,7 +9400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6">
       <c r="B154">
         <v>4.2349905332966099E-2</v>
       </c>
@@ -9263,7 +9417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6">
       <c r="B155">
         <v>0.709189467518339</v>
       </c>
@@ -9280,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:6">
       <c r="B156">
         <v>1.7202945391419502E-2</v>
       </c>
@@ -9297,7 +9451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:6">
       <c r="B157">
         <v>0.297628966133344</v>
       </c>
@@ -9314,7 +9468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:6">
       <c r="B158">
         <v>0.68457907837495702</v>
       </c>
@@ -9331,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:6">
       <c r="B159">
         <v>0.15891529460368101</v>
       </c>
@@ -9348,7 +9502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:6">
       <c r="B160">
         <v>6.3894982725703306E-2</v>
       </c>
@@ -9365,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6">
       <c r="B161">
         <v>0.79872005279061498</v>
       </c>
@@ -9382,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6">
       <c r="B162">
         <v>0.833109997992314</v>
       </c>
@@ -9399,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:6">
       <c r="B163">
         <v>0.194483322136103</v>
       </c>
@@ -9416,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:6">
       <c r="B164">
         <v>0.24584126503445899</v>
       </c>
@@ -9433,7 +9587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:6">
       <c r="B165">
         <v>0.94437131271115105</v>
       </c>
@@ -9450,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:6">
       <c r="B166">
         <v>0.87613700028633401</v>
       </c>
@@ -9467,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:6">
       <c r="B167">
         <v>0.70393253285614099</v>
       </c>
@@ -9484,7 +9638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:6">
       <c r="B168">
         <v>0.18407452705340399</v>
       </c>
@@ -9501,7 +9655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:6">
       <c r="B169">
         <v>0.56806792928826599</v>
       </c>
@@ -9518,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:6">
       <c r="B170">
         <v>0.80883909443713697</v>
       </c>
@@ -9535,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:6">
       <c r="B171">
         <v>0.27985333250035199</v>
       </c>
@@ -9552,7 +9706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:6">
       <c r="B172">
         <v>0.244206712747259</v>
       </c>
@@ -9569,7 +9723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:6">
       <c r="B173">
         <v>0.26964456898625599</v>
       </c>
@@ -9586,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:6">
       <c r="B174">
         <v>0.35142821664273199</v>
       </c>
@@ -9603,7 +9757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:6">
       <c r="B175">
         <v>0.18440703063362399</v>
       </c>
@@ -9620,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:6">
       <c r="B176">
         <v>0.87403920243758504</v>
       </c>
@@ -9637,7 +9791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6">
       <c r="B177">
         <v>0.70739029214766402</v>
       </c>
@@ -9654,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6">
       <c r="B178">
         <v>0.71395720378847705</v>
       </c>
@@ -9671,7 +9825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:6">
       <c r="B179">
         <v>0.77925293459018397</v>
       </c>
@@ -9688,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6">
       <c r="B180">
         <v>0.48992186538503202</v>
       </c>
@@ -9705,7 +9859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6">
       <c r="B181">
         <v>0.26618397927181398</v>
       </c>
@@ -9722,7 +9876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6">
       <c r="B182">
         <v>0.82019378166798296</v>
       </c>
@@ -9739,7 +9893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:6">
       <c r="B183">
         <v>0.69573530496399205</v>
       </c>
@@ -9756,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:6">
       <c r="B184">
         <v>0.43066676341513099</v>
       </c>
@@ -9773,7 +9927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:6">
       <c r="B185">
         <v>0.173803847724529</v>
       </c>
@@ -9790,7 +9944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:6">
       <c r="B186">
         <v>0.111533240609633</v>
       </c>
@@ -9807,7 +9961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:6">
       <c r="B187">
         <v>0.39769270198211598</v>
       </c>
@@ -9824,7 +9978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:6">
       <c r="B188">
         <v>2.1763347769198499E-2</v>
       </c>
@@ -9841,7 +9995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:6">
       <c r="B189">
         <v>0.93274958462612001</v>
       </c>
@@ -9858,7 +10012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:6">
       <c r="B190">
         <v>0.66928946204277295</v>
       </c>
@@ -9875,7 +10029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:6">
       <c r="B191">
         <v>0.73264614777125203</v>
       </c>
@@ -9892,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:6">
       <c r="B192">
         <v>0.99214421507263495</v>
       </c>
@@ -9909,7 +10063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6">
       <c r="B193">
         <v>0.76457726061134001</v>
       </c>
@@ -9926,7 +10080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:6">
       <c r="B194">
         <v>0.90895160483055204</v>
       </c>
@@ -9943,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:6">
       <c r="B195">
         <v>0.27625281628961201</v>
       </c>
@@ -9960,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6">
       <c r="B196">
         <v>7.8889285956264599E-2</v>
       </c>
@@ -9977,7 +10131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:6">
       <c r="B197">
         <v>0.26706737813110698</v>
       </c>
@@ -9994,7 +10148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:6">
       <c r="B198">
         <v>0.169752655038234</v>
       </c>
@@ -10011,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:6">
       <c r="B199">
         <v>0.63951518632882798</v>
       </c>
@@ -10028,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:6">
       <c r="B200">
         <v>0.34696236696041399</v>
       </c>
@@ -10045,7 +10199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:6">
       <c r="B201">
         <v>0.95897024108610596</v>
       </c>
@@ -10062,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:6">
       <c r="B202">
         <v>0.41548050193878799</v>
       </c>
@@ -10079,7 +10233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:6">
       <c r="B203">
         <v>0.90679099877414604</v>
       </c>
@@ -10096,7 +10250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:6">
       <c r="B204">
         <v>0.95961970282347797</v>
       </c>
@@ -10113,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:6">
       <c r="B205">
         <v>0.56073403298990199</v>
       </c>
@@ -10130,7 +10284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:6">
       <c r="B206">
         <v>0.10659496309809</v>
       </c>
@@ -10147,7 +10301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:6">
       <c r="B207">
         <v>0.71889309769020604</v>
       </c>
@@ -10164,7 +10318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:6">
       <c r="B208">
         <v>6.4996001528922098E-2</v>
       </c>
@@ -10181,7 +10335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6">
       <c r="B209">
         <v>0.85207614463917203</v>
       </c>
@@ -10198,7 +10352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:6">
       <c r="B210">
         <v>0.12136549237383799</v>
       </c>
@@ -10215,7 +10369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:6">
       <c r="B211">
         <v>0.18370930785585701</v>
       </c>
@@ -10232,7 +10386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:6">
       <c r="B212">
         <v>0.76970130232266898</v>
       </c>
@@ -10249,7 +10403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:6">
       <c r="B213">
         <v>0.94759999736817002</v>
       </c>
@@ -10266,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:6">
       <c r="B214">
         <v>0.39704273877361301</v>
       </c>
@@ -10283,7 +10437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:6">
       <c r="B215">
         <v>0.52013591163160899</v>
       </c>
@@ -10300,7 +10454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:6">
       <c r="B216">
         <v>0.33059376914448901</v>
       </c>
@@ -10317,7 +10471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:6">
       <c r="B217">
         <v>0.58743531598155596</v>
       </c>
@@ -10334,7 +10488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:6">
       <c r="B218">
         <v>0.31686165621440798</v>
       </c>
@@ -10351,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:6">
       <c r="B219">
         <v>0.352180724293575</v>
       </c>
@@ -10368,7 +10522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:6">
       <c r="B220">
         <v>0.84893005205060101</v>
       </c>
@@ -10385,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:6">
       <c r="B221">
         <v>9.6565654389023203E-2</v>
       </c>
@@ -10402,7 +10556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:6">
       <c r="B222">
         <v>4.5306059302849297E-2</v>
       </c>
@@ -10419,7 +10573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:6">
       <c r="B223">
         <v>0.50952267590438105</v>
       </c>
@@ -10436,7 +10590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:6">
       <c r="B224">
         <v>0.83990274596307901</v>
       </c>
@@ -10453,7 +10607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:6">
       <c r="B225">
         <v>0.55995734799060204</v>
       </c>
@@ -10470,7 +10624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:6">
       <c r="B226">
         <v>0.24137008124584899</v>
       </c>
@@ -10487,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:6">
       <c r="B227">
         <v>0.15768700988721601</v>
       </c>
@@ -10504,7 +10658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:6">
       <c r="B228">
         <v>0.62493018270704104</v>
       </c>
@@ -10521,7 +10675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:6">
       <c r="B229">
         <v>0.79061786654687904</v>
       </c>
@@ -10538,7 +10692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:6">
       <c r="B230">
         <v>0.30080460876707499</v>
       </c>
@@ -10555,7 +10709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:6">
       <c r="B231">
         <v>9.501980216099E-2</v>
       </c>
@@ -10572,7 +10726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:6">
       <c r="B232">
         <v>0.112039453715656</v>
       </c>
@@ -10589,7 +10743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:6">
       <c r="B233">
         <v>0.39415216443390799</v>
       </c>
@@ -10606,7 +10760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:6">
       <c r="B234">
         <v>0.115980728683285</v>
       </c>
@@ -10623,7 +10777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:6">
       <c r="B235">
         <v>8.0049859171636706E-2</v>
       </c>
@@ -10640,7 +10794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:6">
       <c r="B236">
         <v>0.35009597141728799</v>
       </c>
@@ -10657,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:6">
       <c r="B237">
         <v>0.12830982391735901</v>
       </c>
@@ -10674,7 +10828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:6">
       <c r="B238">
         <v>0.94077410810279605</v>
       </c>
@@ -10691,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:6">
       <c r="B239">
         <v>0.372078907041129</v>
       </c>
@@ -10708,7 +10862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:6">
       <c r="B240">
         <v>0.11789216951159399</v>
       </c>
@@ -10725,7 +10879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:6">
       <c r="B241">
         <v>0.32113788457322101</v>
       </c>
@@ -10742,7 +10896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:6">
       <c r="B242">
         <v>0.26074908975933098</v>
       </c>
@@ -10759,7 +10913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:6">
       <c r="B243">
         <v>0.79577671515802095</v>
       </c>
@@ -10776,7 +10930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:6">
       <c r="B244">
         <v>0.83311329435619497</v>
       </c>
@@ -10793,7 +10947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:6">
       <c r="B245">
         <v>0.57632322733544505</v>
       </c>
@@ -10810,7 +10964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:6">
       <c r="B246">
         <v>9.7475505500943505E-4</v>
       </c>
@@ -10827,7 +10981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:6">
       <c r="B247">
         <v>0.158938650028946</v>
       </c>
@@ -10844,7 +10998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:6">
       <c r="B248">
         <v>0.543312938647463</v>
       </c>
@@ -10861,7 +11015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:6">
       <c r="B249">
         <v>9.8002348209540405E-3</v>
       </c>
@@ -10878,7 +11032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:6">
       <c r="B250">
         <v>0.26894762922847698</v>
       </c>
@@ -10895,7 +11049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:6">
       <c r="B251">
         <v>0.80048200866035202</v>
       </c>
@@ -10912,7 +11066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:6">
       <c r="B252">
         <v>0.913766564496446</v>
       </c>
@@ -10929,7 +11083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:6">
       <c r="B253">
         <v>0.126242454247877</v>
       </c>
@@ -10946,7 +11100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:6">
       <c r="B254">
         <v>0.97363543062086</v>
       </c>
@@ -10963,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:6">
       <c r="B255">
         <v>0.99984987208796905</v>
       </c>
@@ -10980,7 +11134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:6">
       <c r="B256">
         <v>0.15935580312317901</v>
       </c>
@@ -10997,7 +11151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:6">
       <c r="B257">
         <v>0.74125450359113199</v>
       </c>
@@ -11014,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:6">
       <c r="B258">
         <v>0.18087315852702299</v>
       </c>
@@ -11031,7 +11185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:6">
       <c r="B259">
         <v>0.95753740484821304</v>
       </c>
@@ -11048,7 +11202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:6">
       <c r="B260">
         <v>0.37038037671309598</v>
       </c>
@@ -11065,7 +11219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:6">
       <c r="B261">
         <v>0.88999969506932197</v>
       </c>
@@ -11082,7 +11236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:6">
       <c r="B262">
         <v>0.24256805641579701</v>
       </c>
@@ -11099,7 +11253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:6">
       <c r="B263">
         <v>0.80307588355120796</v>
       </c>
@@ -11116,7 +11270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:6">
       <c r="B264">
         <v>0.31987970215108802</v>
       </c>
@@ -11133,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:6">
       <c r="B265">
         <v>0.69207297216813501</v>
       </c>
@@ -11150,7 +11304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:6">
       <c r="B266">
         <v>0.74662589221891595</v>
       </c>
@@ -11167,7 +11321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:6">
       <c r="B267">
         <v>0.25195842762325599</v>
       </c>
@@ -11184,7 +11338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:6">
       <c r="B268">
         <v>0.32798707249333398</v>
       </c>
@@ -11201,7 +11355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:6">
       <c r="B269">
         <v>0.44294137716517401</v>
       </c>
@@ -11218,7 +11372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:6">
       <c r="B270">
         <v>0.86788357427859497</v>
       </c>
@@ -11235,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:6">
       <c r="B271">
         <v>0.22092534451964199</v>
       </c>
@@ -11252,7 +11406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:6">
       <c r="B272">
         <v>0.42162809560870801</v>
       </c>
@@ -11269,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:6">
       <c r="B273">
         <v>0.35896709227976897</v>
       </c>
@@ -11286,7 +11440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:6">
       <c r="B274">
         <v>0.93259405055893896</v>
       </c>
@@ -11303,7 +11457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:6">
       <c r="B275">
         <v>0.41296578621383401</v>
       </c>
@@ -11320,7 +11474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:6">
       <c r="B276">
         <v>0.76329198670923204</v>
       </c>
@@ -11337,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:6">
       <c r="B277">
         <v>0.13756511676045299</v>
       </c>
@@ -11354,7 +11508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:6">
       <c r="B278">
         <v>0.61970369706103601</v>
       </c>
@@ -11371,7 +11525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:6">
       <c r="B279">
         <v>4.3110938521451599E-2</v>
       </c>
@@ -11388,7 +11542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:6">
       <c r="B280">
         <v>0.65411461392850301</v>
       </c>
@@ -11405,7 +11559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:6">
       <c r="B281">
         <v>0.168340478152738</v>
       </c>
@@ -11422,7 +11576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:6">
       <c r="B282">
         <v>0.53011029945550503</v>
       </c>
@@ -11439,7 +11593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:6">
       <c r="B283">
         <v>0.93288816643330297</v>
       </c>
@@ -11456,7 +11610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:6">
       <c r="B284">
         <v>0.92363094717660499</v>
       </c>
@@ -11473,7 +11627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:6">
       <c r="B285">
         <v>1.20187955384192E-2</v>
       </c>
@@ -11490,7 +11644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:6">
       <c r="B286">
         <v>0.57213395393046895</v>
       </c>
@@ -11507,7 +11661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:6">
       <c r="B287">
         <v>0.99001900627264405</v>
       </c>
@@ -11524,7 +11678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:6">
       <c r="B288">
         <v>0.45857455189928198</v>
       </c>
@@ -11541,7 +11695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:6">
       <c r="B289">
         <v>0.63581586808445401</v>
       </c>
@@ -11558,7 +11712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:6">
       <c r="B290">
         <v>0.847908090834259</v>
       </c>
@@ -11575,7 +11729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:6">
       <c r="B291">
         <v>0.112186204402447</v>
       </c>
@@ -11592,7 +11746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:6">
       <c r="B292">
         <v>0.87577775035131</v>
       </c>
@@ -11609,7 +11763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:6">
       <c r="B293">
         <v>0.20343831587380701</v>
       </c>
@@ -11626,7 +11780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:6">
       <c r="B294">
         <v>0.56281172951981595</v>
       </c>
@@ -11643,7 +11797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:6">
       <c r="B295">
         <v>0.94555754758384103</v>
       </c>
@@ -11660,7 +11814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:6">
       <c r="B296">
         <v>0.21281783808910301</v>
       </c>
@@ -11677,7 +11831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:6">
       <c r="B297">
         <v>0.43629842390638801</v>
       </c>
@@ -11694,7 +11848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:6">
       <c r="B298">
         <v>0.64303612558687295</v>
       </c>
@@ -11711,7 +11865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:6">
       <c r="B299">
         <v>3.8228281746482698E-2</v>
       </c>
@@ -11728,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:6">
       <c r="B300">
         <v>0.990544041987095</v>
       </c>
@@ -11745,7 +11899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:6">
       <c r="B301">
         <v>0.59843484912940703</v>
       </c>
@@ -11762,7 +11916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:6">
       <c r="B302">
         <v>0.67526410559030603</v>
       </c>
@@ -11779,7 +11933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:6">
       <c r="B303">
         <v>0.69613953916712701</v>
       </c>
@@ -11796,7 +11950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:6">
       <c r="B304">
         <v>0.80435838554698602</v>
       </c>
@@ -11813,7 +11967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:6">
       <c r="B305">
         <v>0.85025262035430305</v>
       </c>
@@ -11830,7 +11984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:6">
       <c r="B306">
         <v>0.76283784180432401</v>
       </c>
@@ -11847,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:6">
       <c r="B307">
         <v>0.18684116072968099</v>
       </c>
@@ -11864,7 +12018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:6">
       <c r="B308">
         <v>0.90213150604053305</v>
       </c>
@@ -11881,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:6">
       <c r="B309">
         <v>0.83324691209596602</v>
       </c>
@@ -11898,7 +12052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:6">
       <c r="B310">
         <v>5.6576629671274803E-2</v>
       </c>
@@ -11915,7 +12069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:6">
       <c r="B311">
         <v>0.51882878522176801</v>
       </c>
@@ -11932,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:6">
       <c r="B312">
         <v>0.49801815878153299</v>
       </c>
@@ -11949,7 +12103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:6">
       <c r="B313">
         <v>0.67723017390682105</v>
       </c>
@@ -11966,7 +12120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:6">
       <c r="B314">
         <v>6.5448755488925495E-2</v>
       </c>
@@ -11983,7 +12137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:6">
       <c r="B315">
         <v>0.25963942288397301</v>
       </c>
@@ -12000,7 +12154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:6">
       <c r="B316">
         <v>0.25544996855531299</v>
       </c>
@@ -12017,7 +12171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:6">
       <c r="B317">
         <v>0.47806585616126401</v>
       </c>
@@ -12034,7 +12188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:6">
       <c r="B318">
         <v>0.95967854860585</v>
       </c>
@@ -12051,7 +12205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:6">
       <c r="B319">
         <v>0.79747809296376604</v>
       </c>
@@ -12068,7 +12222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:6">
       <c r="B320">
         <v>0.85602531918666303</v>
       </c>
@@ -12085,7 +12239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:6">
       <c r="B321">
         <v>0.69371738256812299</v>
       </c>
@@ -12102,7 +12256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:6">
       <c r="B322">
         <v>0.121970299169791</v>
       </c>
@@ -12119,7 +12273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:6">
       <c r="B323">
         <v>0.13991538254774599</v>
       </c>
@@ -12136,7 +12290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:6">
       <c r="B324">
         <v>0.46929087984439799</v>
       </c>
@@ -12153,7 +12307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:6">
       <c r="B325">
         <v>8.8465940113709493E-2</v>
       </c>
@@ -12170,7 +12324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:6">
       <c r="B326">
         <v>0.310330511928266</v>
       </c>
@@ -12187,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:6">
       <c r="B327">
         <v>0.48363954530015302</v>
       </c>
@@ -12204,7 +12358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:6">
       <c r="B328">
         <v>0.83698543236563305</v>
       </c>
@@ -12221,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:6">
       <c r="B329">
         <v>0.42236026523202602</v>
       </c>
@@ -12238,7 +12392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:6">
       <c r="B330">
         <v>0.25452368376607098</v>
       </c>
@@ -12255,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:6">
       <c r="B331">
         <v>0.650043320381405</v>
       </c>
@@ -12272,7 +12426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:6">
       <c r="B332">
         <v>0.51654994320150405</v>
       </c>
@@ -12289,7 +12443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:6">
       <c r="B333">
         <v>0.226948386858042</v>
       </c>
@@ -12306,7 +12460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:6">
       <c r="B334">
         <v>0.70814065013463201</v>
       </c>
@@ -12323,7 +12477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:6">
       <c r="B335">
         <v>0.74348849525850702</v>
       </c>
@@ -12340,7 +12494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:6">
       <c r="B336">
         <v>0.774540802090114</v>
       </c>
@@ -12357,7 +12511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:6">
       <c r="B337">
         <v>0.67369818607086496</v>
       </c>
@@ -12374,7 +12528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:6">
       <c r="B338">
         <v>0.31103151412333802</v>
       </c>
@@ -12391,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:6">
       <c r="B339">
         <v>0.33616102981486701</v>
       </c>
@@ -12408,7 +12562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:6">
       <c r="B340">
         <v>7.0991701407395899E-2</v>
       </c>
@@ -12425,7 +12579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:6">
       <c r="B341">
         <v>0.61524577680870896</v>
       </c>
@@ -12442,7 +12596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:6">
       <c r="B342">
         <v>0.24394670605727201</v>
       </c>
@@ -12459,7 +12613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:6">
       <c r="B343">
         <v>0.66536416449210101</v>
       </c>
@@ -12476,7 +12630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:6">
       <c r="B344">
         <v>0.52348884252335304</v>
       </c>
@@ -12493,7 +12647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:6">
       <c r="B345">
         <v>9.0822738158219105E-2</v>
       </c>
@@ -12510,7 +12664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:6">
       <c r="B346">
         <v>0.280316015282493</v>
       </c>
@@ -12527,7 +12681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:6">
       <c r="B347">
         <v>0.65583936650083097</v>
       </c>
@@ -12544,7 +12698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:6">
       <c r="B348">
         <v>0.10015063180940301</v>
       </c>
@@ -12561,7 +12715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:6">
       <c r="B349">
         <v>0.103753659039237</v>
       </c>
@@ -12578,7 +12732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:6">
       <c r="B350">
         <v>0.38259708626525102</v>
       </c>
@@ -12595,7 +12749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:6">
       <c r="B351">
         <v>0.79824621424089404</v>
       </c>
@@ -12612,7 +12766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:6">
       <c r="B352">
         <v>0.347008298243073</v>
       </c>
@@ -12629,7 +12783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:6">
       <c r="B353">
         <v>0.65580934075059405</v>
       </c>
@@ -12646,7 +12800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:6">
       <c r="B354">
         <v>0.52898549939005401</v>
       </c>
@@ -12663,7 +12817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:6">
       <c r="B355">
         <v>0.267719107542435</v>
       </c>
@@ -12680,7 +12834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:6">
       <c r="B356">
         <v>0.44118018070204501</v>
       </c>
@@ -12697,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:6">
       <c r="B357">
         <v>0.81952660027491497</v>
       </c>
@@ -12714,7 +12868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:6">
       <c r="B358">
         <v>0.23738568183360201</v>
       </c>
@@ -12731,7 +12885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:6">
       <c r="B359">
         <v>0.87176975861499695</v>
       </c>
@@ -12748,7 +12902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:6">
       <c r="B360">
         <v>0.849112120128104</v>
       </c>
@@ -12765,7 +12919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:6">
       <c r="B361">
         <v>0.31699703790413097</v>
       </c>
@@ -12782,7 +12936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:6">
       <c r="B362">
         <v>0.50913608469801697</v>
       </c>
@@ -12799,7 +12953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:6">
       <c r="B363">
         <v>0.37730408272032001</v>
       </c>
@@ -12816,7 +12970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:6">
       <c r="B364">
         <v>0.69676878091521899</v>
       </c>
@@ -12833,7 +12987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:6">
       <c r="B365">
         <v>0.11361306087345401</v>
       </c>
@@ -12850,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:6">
       <c r="B366">
         <v>0.52817185230152497</v>
       </c>
@@ -12867,7 +13021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:6">
       <c r="B367">
         <v>9.8073553104313899E-2</v>
       </c>
@@ -12884,7 +13038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:6">
       <c r="B368">
         <v>0.93641615570606795</v>
       </c>
@@ -12901,7 +13055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:6">
       <c r="B369">
         <v>0.272065370177064</v>
       </c>
@@ -12918,7 +13072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:6">
       <c r="B370">
         <v>0.27357025916169497</v>
       </c>
@@ -12935,7 +13089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:6">
       <c r="B371">
         <v>0.110055675766911</v>
       </c>
@@ -12952,7 +13106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:6">
       <c r="B372">
         <v>0.348290911034905</v>
       </c>
@@ -12969,7 +13123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:6">
       <c r="B373">
         <v>0.15510799021228999</v>
       </c>
@@ -12986,7 +13140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:6">
       <c r="B374">
         <v>1.3293205728543299E-2</v>
       </c>
@@ -13003,7 +13157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:6">
       <c r="B375">
         <v>0.18933866667169</v>
       </c>
@@ -13020,7 +13174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:6">
       <c r="B376">
         <v>0.74035441521973899</v>
       </c>
@@ -13037,7 +13191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:6">
       <c r="B377">
         <v>6.9489089783113897E-2</v>
       </c>
@@ -13054,7 +13208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:6">
       <c r="B378">
         <v>0.44859562545172899</v>
       </c>
@@ -13071,7 +13225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:6">
       <c r="B379">
         <v>0.93377586331361295</v>
       </c>
@@ -13088,7 +13242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:6">
       <c r="B380">
         <v>0.64267487521038003</v>
       </c>
@@ -13105,7 +13259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:6">
       <c r="B381">
         <v>0.97198895380694394</v>
       </c>
@@ -13122,7 +13276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:6">
       <c r="B382">
         <v>0.77048176555876602</v>
       </c>
@@ -13139,7 +13293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:6">
       <c r="B383">
         <v>0.34961695275968702</v>
       </c>
@@ -13156,7 +13310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:6">
       <c r="B384">
         <v>0.369641523991599</v>
       </c>
@@ -13173,7 +13327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:6">
       <c r="B385">
         <v>0.47604947819066401</v>
       </c>
@@ -13190,7 +13344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:6">
       <c r="B386">
         <v>0.20588936334013</v>
       </c>
@@ -13207,7 +13361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:6">
       <c r="B387">
         <v>0.90771728544382801</v>
       </c>
@@ -13224,7 +13378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:6">
       <c r="B388">
         <v>0.68897653526522395</v>
       </c>
@@ -13241,7 +13395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:6">
       <c r="B389">
         <v>3.1654872560415902E-2</v>
       </c>
@@ -13258,7 +13412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:6">
       <c r="B390">
         <v>0.46204211900035402</v>
       </c>
@@ -13275,7 +13429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:6">
       <c r="B391">
         <v>8.8937654346429695E-2</v>
       </c>
@@ -13292,7 +13446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:6">
       <c r="B392">
         <v>6.2098843520832503E-2</v>
       </c>
@@ -13309,7 +13463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:6">
       <c r="B393">
         <v>3.9079141796745299E-2</v>
       </c>
@@ -13326,7 +13480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:6">
       <c r="B394">
         <v>4.3573581608080197E-2</v>
       </c>
@@ -13343,7 +13497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:6">
       <c r="B395">
         <v>0.14313232981018201</v>
       </c>
@@ -13360,7 +13514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:6">
       <c r="B396">
         <v>0.100420687321942</v>
       </c>
@@ -13377,7 +13531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:6">
       <c r="B397">
         <v>0.30573225468637599</v>
       </c>
@@ -13394,7 +13548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:6">
       <c r="B398">
         <v>0.61975882298276197</v>
       </c>
@@ -13411,7 +13565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:6">
       <c r="B399">
         <v>0.51745806605174405</v>
       </c>
@@ -13428,7 +13582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:6">
       <c r="B400">
         <v>3.6615803797450598E-3</v>
       </c>
@@ -13445,7 +13599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:6">
       <c r="B401">
         <v>0.83526583395549803</v>
       </c>
@@ -13462,7 +13616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:6">
       <c r="B402">
         <v>0.17927651708855699</v>
       </c>
@@ -13479,7 +13633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:6">
       <c r="B403">
         <v>0.72302315744278201</v>
       </c>
@@ -13496,7 +13650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:6">
       <c r="B404">
         <v>0.65344416796001203</v>
       </c>
@@ -13513,7 +13667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:6">
       <c r="B405">
         <v>0.78107317933849196</v>
       </c>
@@ -13530,7 +13684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:6">
       <c r="B406">
         <v>0.63902555696366503</v>
       </c>
@@ -13547,7 +13701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:6">
       <c r="B407">
         <v>0.96255872766514206</v>
       </c>
@@ -13564,7 +13718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:6">
       <c r="B408">
         <v>0.19354844062193799</v>
       </c>
@@ -13581,7 +13735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:6">
       <c r="B409">
         <v>0.92114680084665002</v>
       </c>
@@ -13598,7 +13752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:6">
       <c r="B410">
         <v>0.59032849524888498</v>
       </c>
@@ -13615,7 +13769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:6">
       <c r="B411">
         <v>0.12953903174015399</v>
       </c>
@@ -13632,7 +13786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:6">
       <c r="B412">
         <v>0.82190279215610795</v>
       </c>
@@ -13649,7 +13803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:6">
       <c r="B413">
         <v>0.91416411774822404</v>
       </c>
@@ -13666,7 +13820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:6">
       <c r="B414">
         <v>0.41004889601866701</v>
       </c>
@@ -13683,7 +13837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:6">
       <c r="B415">
         <v>0.198358180887519</v>
       </c>
@@ -13700,7 +13854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:6">
       <c r="B416">
         <v>0.72527227973292296</v>
       </c>
@@ -13717,7 +13871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:6">
       <c r="B417">
         <v>0.74983846697608703</v>
       </c>
@@ -13734,7 +13888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:6">
       <c r="B418">
         <v>0.32020290278841801</v>
       </c>
@@ -13751,7 +13905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:6">
       <c r="B419">
         <v>0.29432603880097702</v>
       </c>
@@ -13768,7 +13922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:6">
       <c r="B420">
         <v>0.68797856840493998</v>
       </c>
@@ -13785,7 +13939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:6">
       <c r="B421">
         <v>0.46879341802982699</v>
       </c>
@@ -13802,7 +13956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:6">
       <c r="B422">
         <v>0.32343152540722903</v>
       </c>
@@ -13819,7 +13973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:6">
       <c r="B423">
         <v>0.66500097592026997</v>
       </c>
@@ -13836,7 +13990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:6">
       <c r="B424">
         <v>5.7478833275940298E-2</v>
       </c>
@@ -13853,7 +14007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:6">
       <c r="B425">
         <v>6.1858421366232902E-2</v>
       </c>
@@ -13870,7 +14024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:6">
       <c r="B426">
         <v>0.57760424024673895</v>
       </c>
@@ -13887,7 +14041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:6">
       <c r="B427">
         <v>0.54911771690341005</v>
       </c>
@@ -13904,7 +14058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:6">
       <c r="B428">
         <v>0.74872118785546304</v>
       </c>
@@ -13921,7 +14075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:6">
       <c r="B429">
         <v>0.18826691271773299</v>
       </c>
@@ -13938,7 +14092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:6">
       <c r="B430">
         <v>0.433595513744996</v>
       </c>
@@ -13955,7 +14109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:6">
       <c r="B431">
         <v>0.41966838277100499</v>
       </c>
@@ -13972,7 +14126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:6">
       <c r="B432">
         <v>8.2684603056345493E-2</v>
       </c>
@@ -13989,7 +14143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:6">
       <c r="B433">
         <v>0.43993394044163597</v>
       </c>
@@ -14006,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:6">
       <c r="B434">
         <v>0.19546531278569401</v>
       </c>
@@ -14023,7 +14177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:6">
       <c r="B435">
         <v>0.38849410773939103</v>
       </c>
@@ -14040,7 +14194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:6">
       <c r="B436">
         <v>0.51908866971973999</v>
       </c>
@@ -14057,7 +14211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:6">
       <c r="B437">
         <v>0.74002525127554597</v>
       </c>
@@ -14074,7 +14228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:6">
       <c r="B438">
         <v>0.250700057180756</v>
       </c>
@@ -14091,7 +14245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:6">
       <c r="B439">
         <v>0.81362181392517097</v>
       </c>
@@ -14108,7 +14262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:6">
       <c r="B440">
         <v>0.87173898767565505</v>
       </c>
@@ -14125,7 +14279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:6">
       <c r="B441">
         <v>0.746471157891476</v>
       </c>
@@ -14142,7 +14296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:6">
       <c r="B442">
         <v>0.61614419770054096</v>
       </c>
@@ -14159,7 +14313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:6">
       <c r="B443">
         <v>0.32022435391551701</v>
       </c>
@@ -14176,7 +14330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:6">
       <c r="B444">
         <v>0.81019278667738304</v>
       </c>
@@ -14193,7 +14347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:6">
       <c r="B445">
         <v>0.185208722072746</v>
       </c>
@@ -14210,7 +14364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:6">
       <c r="B446">
         <v>0.80067469433512195</v>
       </c>
@@ -14227,7 +14381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:6">
       <c r="B447">
         <v>6.6408997760155603E-2</v>
       </c>
@@ -14244,7 +14398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:6">
       <c r="B448">
         <v>0.676898573541308</v>
       </c>
@@ -14261,7 +14415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:6">
       <c r="B449">
         <v>0.96230117876100096</v>
       </c>
@@ -14278,7 +14432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:6">
       <c r="B450">
         <v>0.90330556370089099</v>
       </c>
@@ -14295,7 +14449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:6">
       <c r="B451">
         <v>0.80810293574113601</v>
       </c>
@@ -14312,7 +14466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:6">
       <c r="B452">
         <v>0.36490080451229701</v>
       </c>
@@ -14329,7 +14483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:6">
       <c r="B453">
         <v>0.53429832435056102</v>
       </c>
@@ -14346,7 +14500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:6">
       <c r="B454">
         <v>0.68068581202198697</v>
       </c>
@@ -14363,7 +14517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:6">
       <c r="B455">
         <v>0.16090026439952901</v>
       </c>
@@ -14380,7 +14534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:6">
       <c r="B456">
         <v>0.18055324726882699</v>
       </c>
@@ -14397,7 +14551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:6">
       <c r="B457">
         <v>0.52184300746012102</v>
       </c>
@@ -14414,7 +14568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:6">
       <c r="B458">
         <v>0.92227479139452295</v>
       </c>
@@ -14431,7 +14585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:6">
       <c r="B459">
         <v>0.369168235300676</v>
       </c>
@@ -14448,7 +14602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:6">
       <c r="B460">
         <v>0.83537686950615497</v>
       </c>
@@ -14465,7 +14619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:6">
       <c r="B461">
         <v>0.325495398403646</v>
       </c>
@@ -14482,7 +14636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:6">
       <c r="B462">
         <v>0.75214315170935298</v>
       </c>
@@ -14499,7 +14653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:6">
       <c r="B463">
         <v>0.60393019296546602</v>
       </c>
@@ -14516,7 +14670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:6">
       <c r="B464">
         <v>0.99192553024999397</v>
       </c>
@@ -14533,7 +14687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:6">
       <c r="B465">
         <v>0.62115266968875904</v>
       </c>
@@ -14550,7 +14704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:6">
       <c r="B466">
         <v>0.492341734033578</v>
       </c>
@@ -14567,7 +14721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:6">
       <c r="B467">
         <v>0.70030647228520904</v>
       </c>
@@ -14584,7 +14738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:6">
       <c r="B468">
         <v>0.34048394565201201</v>
       </c>
@@ -14601,7 +14755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:6">
       <c r="B469">
         <v>0.80238049837013403</v>
       </c>
@@ -14618,7 +14772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:6">
       <c r="B470">
         <v>0.87098681436023795</v>
       </c>
@@ -14635,7 +14789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:6">
       <c r="B471">
         <v>0.74801465095882802</v>
       </c>
@@ -14652,7 +14806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:6">
       <c r="B472">
         <v>3.1718127451582701E-2</v>
       </c>
@@ -14669,7 +14823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:6">
       <c r="B473">
         <v>0.70491243094454004</v>
       </c>
@@ -14686,7 +14840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:6">
       <c r="B474">
         <v>0.76012359719518496</v>
       </c>
@@ -14703,7 +14857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:6">
       <c r="B475">
         <v>0.49745595914066898</v>
       </c>
@@ -14720,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:6">
       <c r="B476">
         <v>5.3536996334892603E-2</v>
       </c>
@@ -14737,7 +14891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:6">
       <c r="B477">
         <v>3.1738713806224103E-2</v>
       </c>
@@ -14754,7 +14908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:6">
       <c r="B478">
         <v>0.91559928163388804</v>
       </c>
@@ -14771,7 +14925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:6">
       <c r="B479">
         <v>0.29543781577199102</v>
       </c>
@@ -14788,7 +14942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:6">
       <c r="B480">
         <v>0.972761383765264</v>
       </c>
@@ -14805,7 +14959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:6">
       <c r="B481">
         <v>0.23731869385701199</v>
       </c>
@@ -14822,7 +14976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:6">
       <c r="B482">
         <v>0.22598869238309999</v>
       </c>
@@ -14839,7 +14993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:6">
       <c r="B483">
         <v>0.83341732250649103</v>
       </c>
@@ -14856,7 +15010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:6">
       <c r="B484">
         <v>0.47299949225412202</v>
       </c>
@@ -14873,7 +15027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:6">
       <c r="B485">
         <v>5.5910485743164699E-2</v>
       </c>
@@ -14890,7 +15044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:6">
       <c r="B486">
         <v>0.85978771061560699</v>
       </c>
@@ -14907,7 +15061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:6">
       <c r="B487">
         <v>0.97675114906161997</v>
       </c>
@@ -14924,7 +15078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:6">
       <c r="B488">
         <v>0.55737405920544503</v>
       </c>
@@ -14941,7 +15095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:6">
       <c r="B489">
         <v>0.65734167860608905</v>
       </c>
@@ -14958,7 +15112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:6">
       <c r="B490">
         <v>0.54350213511642298</v>
       </c>
@@ -14975,7 +15129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:6">
       <c r="B491">
         <v>0.925245363117841</v>
       </c>
@@ -14992,7 +15146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:6">
       <c r="B492">
         <v>4.19312915260849E-2</v>
       </c>
@@ -15009,7 +15163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:6">
       <c r="B493">
         <v>0.96167804332467699</v>
       </c>
@@ -15026,7 +15180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:6">
       <c r="B494">
         <v>0.84472192854135697</v>
       </c>
@@ -15043,7 +15197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:6">
       <c r="B495">
         <v>0.162899344903504</v>
       </c>
@@ -15060,7 +15214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:6">
       <c r="B496">
         <v>0.45082538597270699</v>
       </c>
@@ -15077,7 +15231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:6">
       <c r="B497">
         <v>0.55163170158833097</v>
       </c>
@@ -15094,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:6">
       <c r="B498">
         <v>0.48938523813849799</v>
       </c>
@@ -15111,7 +15265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:6">
       <c r="B499">
         <v>0.460546385840999</v>
       </c>
@@ -15128,7 +15282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:6">
       <c r="B500">
         <v>0.97230347324587396</v>
       </c>
@@ -15145,7 +15299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:6">
       <c r="B501">
         <v>0.85416230928465597</v>
       </c>
@@ -15162,7 +15316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:6">
       <c r="B502">
         <v>0.83768303274009004</v>
       </c>
@@ -15179,7 +15333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:6">
       <c r="B503">
         <v>0.77555875508662997</v>
       </c>
@@ -15196,7 +15350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:6">
       <c r="B504">
         <v>0.28693518055436401</v>
       </c>
@@ -15213,7 +15367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:6">
       <c r="B505">
         <v>4.9987916764244897E-2</v>
       </c>
@@ -15230,7 +15384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:6">
       <c r="B506">
         <v>0.52146814499658101</v>
       </c>
@@ -15247,7 +15401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:6">
       <c r="B507">
         <v>0.74161127638195901</v>
       </c>
@@ -15264,7 +15418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:6">
       <c r="B508">
         <v>0.39964666862543402</v>
       </c>
@@ -15281,7 +15435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:6">
       <c r="B509">
         <v>0.81610791619327006</v>
       </c>
@@ -15298,7 +15452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:6">
       <c r="B510">
         <v>0.23994519219299301</v>
       </c>
@@ -15315,7 +15469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:6">
       <c r="B511">
         <v>0.290340305352914</v>
       </c>
@@ -15332,7 +15486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:6">
       <c r="B512">
         <v>0.75738912646783896</v>
       </c>
@@ -15349,7 +15503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:6">
       <c r="B513">
         <v>0.71326097136771605</v>
       </c>
@@ -15366,7 +15520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:6">
       <c r="B514">
         <v>0.95432859190975905</v>
       </c>
@@ -15383,7 +15537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:6">
       <c r="B515">
         <v>6.8772438883700299E-2</v>
       </c>
@@ -15400,7 +15554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:6">
       <c r="B516">
         <v>0.84356685560213496</v>
       </c>
@@ -15417,7 +15571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:6">
       <c r="B517">
         <v>0.862130897580071</v>
       </c>
@@ -15434,7 +15588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:6">
       <c r="B518">
         <v>0.87341735379709895</v>
       </c>
@@ -15451,7 +15605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:6">
       <c r="B519">
         <v>0.97139918679612502</v>
       </c>
@@ -15468,7 +15622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:6">
       <c r="B520">
         <v>0.76941316435322105</v>
       </c>
@@ -15485,7 +15639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:6">
       <c r="B521">
         <v>0.65392606084440197</v>
       </c>
@@ -15502,7 +15656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:6">
       <c r="B522">
         <v>0.26977898537258299</v>
       </c>
@@ -15519,7 +15673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:6">
       <c r="B523">
         <v>0.92321628344134798</v>
       </c>
@@ -15536,7 +15690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:6">
       <c r="B524">
         <v>0.59268801495022305</v>
       </c>
@@ -15553,7 +15707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:6">
       <c r="B525">
         <v>0.71992472509603</v>
       </c>
@@ -15570,7 +15724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:6">
       <c r="B526">
         <v>0.83334573690192904</v>
       </c>
@@ -15587,7 +15741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:6">
       <c r="B527">
         <v>5.0421739231461198E-2</v>
       </c>
@@ -15604,7 +15758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:6">
       <c r="B528">
         <v>0.420970707368024</v>
       </c>
@@ -15621,7 +15775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:6">
       <c r="B529">
         <v>0.77455937673799702</v>
       </c>
@@ -15638,7 +15792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:6">
       <c r="B530">
         <v>1.6171930778459701E-2</v>
       </c>
@@ -15655,7 +15809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:6">
       <c r="B531">
         <v>0.36976685270878601</v>
       </c>
@@ -15672,7 +15826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:6">
       <c r="B532">
         <v>0.61915664341700904</v>
       </c>
@@ -15689,7 +15843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:6">
       <c r="B533">
         <v>0.58615152547582305</v>
       </c>
@@ -15706,7 +15860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:6">
       <c r="B534">
         <v>0.24193163281133601</v>
       </c>
@@ -15723,7 +15877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:6">
       <c r="B535">
         <v>0.91056062952373795</v>
       </c>
@@ -15740,7 +15894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:6">
       <c r="B536">
         <v>5.3901249969949598E-2</v>
       </c>
@@ -15757,7 +15911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:6">
       <c r="B537">
         <v>8.5192763881252395E-2</v>
       </c>
@@ -15774,7 +15928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:6">
       <c r="B538">
         <v>0.81372176138822006</v>
       </c>
@@ -15791,7 +15945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:6">
       <c r="B539">
         <v>0.71421805301825803</v>
       </c>
@@ -15808,7 +15962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:6">
       <c r="B540">
         <v>7.6055839512248494E-2</v>
       </c>
@@ -15825,7 +15979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:6">
       <c r="B541">
         <v>0.57917237947064903</v>
       </c>
@@ -15842,7 +15996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:6">
       <c r="B542">
         <v>0.48219071102599598</v>
       </c>
@@ -15859,7 +16013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:6">
       <c r="B543">
         <v>0.52346932634022103</v>
       </c>
@@ -15876,7 +16030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:6">
       <c r="B544">
         <v>0.79112028236166199</v>
       </c>
@@ -15893,7 +16047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:6">
       <c r="B545">
         <v>0.89205506204538998</v>
       </c>
@@ -15910,7 +16064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:6">
       <c r="B546">
         <v>5.1180767681069302E-5</v>
       </c>
@@ -15927,7 +16081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:6">
       <c r="B547">
         <v>0.53412797657733802</v>
       </c>
@@ -15944,7 +16098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:6">
       <c r="B548">
         <v>0.80622715487283303</v>
       </c>
@@ -15961,7 +16115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:6">
       <c r="B549">
         <v>0.36264258784382197</v>
       </c>
@@ -15978,7 +16132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:6">
       <c r="B550">
         <v>0.84602678398422204</v>
       </c>
@@ -15995,7 +16149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:6">
       <c r="B551">
         <v>0.339054754395965</v>
       </c>
@@ -16012,7 +16166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:6">
       <c r="B552">
         <v>0.65075883071750695</v>
       </c>
@@ -16029,7 +16183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:6">
       <c r="B553">
         <v>0.74773216661709696</v>
       </c>
@@ -16046,7 +16200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:6">
       <c r="B554">
         <v>0.92584071073079999</v>
       </c>
@@ -16063,7 +16217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:6">
       <c r="B555">
         <v>0.75326433860863196</v>
       </c>
@@ -16080,7 +16234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:6">
       <c r="B556">
         <v>0.75928556862543395</v>
       </c>
@@ -16097,7 +16251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:6">
       <c r="B557">
         <v>0.27736241208663198</v>
       </c>
@@ -16114,7 +16268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:6">
       <c r="B558">
         <v>0.89905340456374805</v>
       </c>
@@ -16131,7 +16285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:6">
       <c r="B559">
         <v>0.71344548572500499</v>
       </c>
@@ -16148,7 +16302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:6">
       <c r="B560">
         <v>0.28129692941485601</v>
       </c>
@@ -16165,7 +16319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:6">
       <c r="B561">
         <v>0.91493336684147897</v>
       </c>
@@ -16182,7 +16336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:6">
       <c r="B562">
         <v>0.79399873120047404</v>
       </c>
@@ -16199,7 +16353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:6">
       <c r="B563">
         <v>0.51615447586004304</v>
       </c>
@@ -16216,7 +16370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:6">
       <c r="B564">
         <v>0.78664323173840001</v>
       </c>
@@ -16233,7 +16387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:6">
       <c r="B565">
         <v>0.76991190780913799</v>
       </c>
@@ -16250,7 +16404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:6">
       <c r="B566">
         <v>0.40737835226239399</v>
       </c>
@@ -16267,7 +16421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:6">
       <c r="B567">
         <v>0.23168553849847601</v>
       </c>
@@ -16284,7 +16438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:6">
       <c r="B568">
         <v>0.74610217404901702</v>
       </c>
@@ -16301,7 +16455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:6">
       <c r="B569">
         <v>2.36418645347049E-2</v>
       </c>
@@ -16318,7 +16472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:6">
       <c r="B570">
         <v>0.199158594982977</v>
       </c>
@@ -16335,7 +16489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:6">
       <c r="B571">
         <v>0.56307982576536197</v>
       </c>
@@ -16352,7 +16506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:6">
       <c r="B572">
         <v>0.373379360682981</v>
       </c>
@@ -16369,7 +16523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:6">
       <c r="B573">
         <v>0.64892030409997203</v>
       </c>
@@ -16386,7 +16540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:6">
       <c r="B574">
         <v>0.88073028129781505</v>
       </c>
@@ -16403,7 +16557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:6">
       <c r="B575">
         <v>0.621789058845024</v>
       </c>
@@ -16420,7 +16574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:6">
       <c r="B576">
         <v>0.43630249653778902</v>
       </c>
@@ -16437,7 +16591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:6">
       <c r="B577">
         <v>0.80200855132928695</v>
       </c>
@@ -16454,7 +16608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:6">
       <c r="B578">
         <v>0.94940536200376702</v>
       </c>
@@ -16471,7 +16625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:6">
       <c r="B579">
         <v>0.54596219572493399</v>
       </c>
@@ -16488,7 +16642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:6">
       <c r="B580">
         <v>0.27198451498815202</v>
       </c>
@@ -16505,7 +16659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:6">
       <c r="B581">
         <v>0.26511014948424599</v>
       </c>
@@ -16522,7 +16676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:6">
       <c r="B582">
         <v>0.95051492520166403</v>
       </c>
@@ -16539,7 +16693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:6">
       <c r="B583">
         <v>0.72822941001140895</v>
       </c>
@@ -16556,7 +16710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:6">
       <c r="B584">
         <v>0.60043459178409897</v>
       </c>
@@ -16573,7 +16727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:6">
       <c r="B585">
         <v>0.52128490596185195</v>
       </c>
@@ -16590,7 +16744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:6">
       <c r="B586">
         <v>0.10352303811989</v>
       </c>
@@ -16607,7 +16761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:6">
       <c r="B587">
         <v>0.39570297199182403</v>
       </c>
@@ -16624,7 +16778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:6">
       <c r="B588">
         <v>0.62211017161828797</v>
       </c>
@@ -16641,7 +16795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:6">
       <c r="B589">
         <v>0.14576738872512399</v>
       </c>
@@ -16658,7 +16812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:6">
       <c r="B590">
         <v>0.78842588274285397</v>
       </c>
@@ -16675,7 +16829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:6">
       <c r="B591">
         <v>0.81437531598722501</v>
       </c>
@@ -16692,7 +16846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:6">
       <c r="B592">
         <v>0.82948222654521198</v>
       </c>
@@ -16709,7 +16863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:6">
       <c r="B593">
         <v>0.474975589809632</v>
       </c>
@@ -16726,7 +16880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:6">
       <c r="B594">
         <v>0.162880442568579</v>
       </c>
@@ -16743,7 +16897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:6">
       <c r="B595">
         <v>0.20271784712327701</v>
       </c>
@@ -16760,7 +16914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:6">
       <c r="B596">
         <v>0.43531000738560799</v>
       </c>
@@ -16777,7 +16931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:6">
       <c r="B597">
         <v>0.105406245073618</v>
       </c>
@@ -16794,7 +16948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:6">
       <c r="B598">
         <v>0.61611571129114195</v>
       </c>
@@ -16811,7 +16965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:6">
       <c r="B599">
         <v>0.39372611381378397</v>
       </c>
@@ -16828,7 +16982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:6">
       <c r="B600">
         <v>0.83582929298200204</v>
       </c>
@@ -16845,7 +16999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:6">
       <c r="B601">
         <v>0.56081446524364598</v>
       </c>
@@ -16862,7 +17016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:6">
       <c r="B602">
         <v>0.49895630340845598</v>
       </c>
@@ -16879,7 +17033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:6">
       <c r="B603">
         <v>0.78289686544106396</v>
       </c>
@@ -16896,7 +17050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:6">
       <c r="B604">
         <v>0.88120634913544305</v>
       </c>
@@ -16913,7 +17067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:6">
       <c r="B605">
         <v>0.80974961164122405</v>
       </c>
@@ -16930,7 +17084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:6">
       <c r="B606">
         <v>9.7944979866553192E-3</v>
       </c>
@@ -16947,7 +17101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:6">
       <c r="B607">
         <v>6.7230567771527E-2</v>
       </c>
@@ -16964,7 +17118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:6">
       <c r="B608">
         <v>0.70655528583263805</v>
       </c>
@@ -16981,7 +17135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:6">
       <c r="B609">
         <v>0.24703687661531201</v>
       </c>
@@ -16998,7 +17152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:6">
       <c r="B610">
         <v>0.25165860052230798</v>
       </c>
@@ -17015,7 +17169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:6">
       <c r="B611">
         <v>0.491170952059024</v>
       </c>
@@ -17032,7 +17186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:6">
       <c r="B612">
         <v>0.77130016028482196</v>
       </c>
@@ -17049,7 +17203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:6">
       <c r="B613">
         <v>0.59400165408009398</v>
       </c>
@@ -17066,7 +17220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:6">
       <c r="B614">
         <v>0.89405063811068497</v>
       </c>
@@ -17083,7 +17237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:6">
       <c r="B615">
         <v>0.12919886574850001</v>
       </c>
@@ -17100,7 +17254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:6">
       <c r="B616">
         <v>0.32998033601822602</v>
       </c>
@@ -17117,7 +17271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:6">
       <c r="B617">
         <v>0.208598315144639</v>
       </c>
@@ -17134,7 +17288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:6">
       <c r="B618">
         <v>0.27280278903084498</v>
       </c>
@@ -17151,7 +17305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:6">
       <c r="B619">
         <v>0.49330674916692102</v>
       </c>
@@ -17168,7 +17322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:6">
       <c r="B620">
         <v>0.66911082100272101</v>
       </c>
@@ -17185,7 +17339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:6">
       <c r="B621">
         <v>0.37171973255569901</v>
       </c>
@@ -17202,7 +17356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:6">
       <c r="B622">
         <v>0.19320934125170899</v>
       </c>
@@ -17219,7 +17373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:6">
       <c r="B623">
         <v>0.75254456681691995</v>
       </c>
@@ -17236,7 +17390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:6">
       <c r="B624">
         <v>0.77335626461359896</v>
       </c>
@@ -17253,7 +17407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:6">
       <c r="B625">
         <v>0.184967177034251</v>
       </c>
@@ -17270,7 +17424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:6">
       <c r="B626">
         <v>0.38087185827836401</v>
       </c>
@@ -17287,7 +17441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:6">
       <c r="B627">
         <v>0.63401934949747896</v>
       </c>
@@ -17304,7 +17458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:6">
       <c r="B628">
         <v>0.80140648163855499</v>
       </c>
@@ -17321,7 +17475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:6">
       <c r="B629">
         <v>0.12469670757158199</v>
       </c>
@@ -17338,7 +17492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:6">
       <c r="B630">
         <v>0.90971046829582503</v>
       </c>
@@ -17355,7 +17509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:6">
       <c r="B631">
         <v>0.739428060320523</v>
       </c>
@@ -17372,7 +17526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:6">
       <c r="B632">
         <v>0.39828170547131603</v>
       </c>
@@ -17389,7 +17543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:6">
       <c r="B633">
         <v>0.32144030534808299</v>
       </c>
@@ -17406,7 +17560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:6">
       <c r="B634">
         <v>0.87607894034220801</v>
       </c>
@@ -17423,7 +17577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:6">
       <c r="B635">
         <v>3.9765328885225902E-2</v>
       </c>
@@ -17440,7 +17594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:6">
       <c r="B636">
         <v>0.94365734723845796</v>
       </c>
@@ -17457,7 +17611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:6">
       <c r="B637">
         <v>0.89017961327999595</v>
       </c>
@@ -17474,7 +17628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:6">
       <c r="B638">
         <v>0.58141995569007798</v>
       </c>
@@ -17491,7 +17645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:6">
       <c r="B639">
         <v>0.68595913493804495</v>
       </c>
@@ -17508,7 +17662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:6">
       <c r="B640">
         <v>0.494855167395849</v>
       </c>
@@ -17525,7 +17679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:6">
       <c r="B641">
         <v>2.9656168626259902E-2</v>
       </c>
@@ -17542,7 +17696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:6">
       <c r="B642">
         <v>0.73610294316625502</v>
       </c>
@@ -17559,7 +17713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:6">
       <c r="B643">
         <v>0.103198858586331</v>
       </c>
@@ -17576,7 +17730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:6">
       <c r="B644">
         <v>0.34474782224807499</v>
       </c>
@@ -17593,7 +17747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:6">
       <c r="B645">
         <v>0.45284380291064003</v>
       </c>
@@ -17610,7 +17764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:6">
       <c r="B646">
         <v>0.91041670604421898</v>
       </c>
@@ -17627,7 +17781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:6">
       <c r="B647">
         <v>0.737930497212682</v>
       </c>
@@ -17644,7 +17798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:6">
       <c r="B648">
         <v>0.983650061758368</v>
       </c>
@@ -17661,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:6">
       <c r="B649">
         <v>0.59204768171480104</v>
       </c>
@@ -17678,7 +17832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:6">
       <c r="B650">
         <v>0.38832304989294197</v>
       </c>
@@ -17695,7 +17849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:6">
       <c r="B651">
         <v>0.69722162147780198</v>
       </c>
@@ -17712,7 +17866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:6">
       <c r="B652">
         <v>0.54553347011744402</v>
       </c>
@@ -17729,7 +17883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:6">
       <c r="B653">
         <v>0.20572024258050001</v>
       </c>
@@ -17746,7 +17900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:6">
       <c r="B654">
         <v>0.34267181953891002</v>
       </c>
@@ -17763,7 +17917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:6">
       <c r="B655">
         <v>7.9173062344664896E-2</v>
       </c>
@@ -17780,7 +17934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:6">
       <c r="B656">
         <v>0.571153133698174</v>
       </c>
@@ -17797,7 +17951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:6">
       <c r="B657">
         <v>0.44421034463352299</v>
       </c>
@@ -17814,7 +17968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:6">
       <c r="B658">
         <v>0.75903899492722504</v>
       </c>
@@ -17831,7 +17985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:6">
       <c r="B659">
         <v>0.59896333505777999</v>
       </c>
@@ -17848,7 +18002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:6">
       <c r="B660">
         <v>0.72920129972650005</v>
       </c>
@@ -17865,7 +18019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:6">
       <c r="B661">
         <v>2.2052593118979599E-3</v>
       </c>
@@ -17882,7 +18036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:6">
       <c r="B662">
         <v>0.68652375798072196</v>
       </c>
@@ -17899,7 +18053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:6">
       <c r="B663">
         <v>0.80991766982232805</v>
       </c>
@@ -17916,7 +18070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:6">
       <c r="B664">
         <v>0.75612540800722094</v>
       </c>
@@ -17933,7 +18087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:6">
       <c r="B665">
         <v>0.92618654259432398</v>
       </c>
@@ -17950,7 +18104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:6">
       <c r="B666">
         <v>0.46827787430246398</v>
       </c>
@@ -17967,7 +18121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:6">
       <c r="B667">
         <v>0.14262214531668799</v>
       </c>
@@ -17984,7 +18138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:6">
       <c r="B668">
         <v>0.64712277702809395</v>
       </c>
@@ -18001,7 +18155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:6">
       <c r="B669">
         <v>0.92770055229985904</v>
       </c>
@@ -18018,7 +18172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:6">
       <c r="B670">
         <v>0.194321883560792</v>
       </c>
@@ -18035,7 +18189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:6">
       <c r="B671">
         <v>0.24097003320158</v>
       </c>
@@ -18052,7 +18206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:6">
       <c r="B672">
         <v>4.22199078974072E-3</v>
       </c>
@@ -18069,7 +18223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:6">
       <c r="B673">
         <v>0.49472772798206399</v>
       </c>
@@ -18086,7 +18240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:6">
       <c r="B674">
         <v>0.84653105995398703</v>
       </c>
@@ -18103,7 +18257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:6">
       <c r="B675">
         <v>0.53401287620364501</v>
       </c>
@@ -18120,7 +18274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:6">
       <c r="B676">
         <v>0.91199035012426199</v>
       </c>
@@ -18137,7 +18291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:6">
       <c r="B677">
         <v>0.69797095485917904</v>
       </c>
@@ -18154,7 +18308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:6">
       <c r="B678">
         <v>0.52180552876549202</v>
       </c>
@@ -18171,7 +18325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:6">
       <c r="B679">
         <v>3.8765164505113199E-2</v>
       </c>
@@ -18188,7 +18342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:6">
       <c r="B680">
         <v>0.820185383335436</v>
       </c>
@@ -18205,7 +18359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:6">
       <c r="B681">
         <v>0.65300955516981396</v>
       </c>
@@ -18222,7 +18376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:6">
       <c r="B682">
         <v>0.40053199593794098</v>
       </c>
@@ -18239,7 +18393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:6">
       <c r="B683">
         <v>0.51232999164066595</v>
       </c>
@@ -18256,7 +18410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:6">
       <c r="B684">
         <v>0.466905815861544</v>
       </c>
@@ -18273,7 +18427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:6">
       <c r="B685">
         <v>0.83110088116646097</v>
       </c>
@@ -18290,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:6">
       <c r="B686">
         <v>0.28518808700630199</v>
       </c>
@@ -18307,7 +18461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:6">
       <c r="B687">
         <v>0.100698562283891</v>
       </c>
@@ -18324,7 +18478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:6">
       <c r="B688">
         <v>0.13257616434618899</v>
       </c>
@@ -18341,7 +18495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:6">
       <c r="B689">
         <v>0.92210166943205496</v>
       </c>
@@ -18358,7 +18512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:6">
       <c r="B690">
         <v>0.42328891395692497</v>
       </c>
@@ -18375,7 +18529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:6">
       <c r="B691">
         <v>0.95645936277618604</v>
       </c>
@@ -18392,7 +18546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:6">
       <c r="B692">
         <v>0.102528390977005</v>
       </c>
@@ -18409,7 +18563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:6">
       <c r="B693">
         <v>0.44268888689200098</v>
       </c>
@@ -18426,7 +18580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:6">
       <c r="B694">
         <v>0.22720329202932801</v>
       </c>
@@ -18443,7 +18597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:6">
       <c r="B695">
         <v>0.91806221020016499</v>
       </c>
@@ -18460,7 +18614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:6">
       <c r="B696">
         <v>0.114149318734196</v>
       </c>
@@ -18477,7 +18631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:6">
       <c r="B697">
         <v>4.3926518500934097E-3</v>
       </c>
@@ -18494,7 +18648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:6">
       <c r="B698">
         <v>0.523505197607256</v>
       </c>
@@ -18511,7 +18665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:6">
       <c r="B699">
         <v>0.689512083568663</v>
       </c>
@@ -18528,7 +18682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:6">
       <c r="B700">
         <v>0.73809968010587901</v>
       </c>
@@ -18545,7 +18699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:6">
       <c r="B701">
         <v>0.69149764052051599</v>
       </c>
@@ -18562,7 +18716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:6">
       <c r="B702">
         <v>0.67977754924807499</v>
       </c>
@@ -18579,7 +18733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:6">
       <c r="B703">
         <v>0.94489125999772605</v>
       </c>
@@ -18596,7 +18750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:6">
       <c r="B704">
         <v>0.68963903688714601</v>
       </c>
@@ -18613,7 +18767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:6">
       <c r="B705">
         <v>0.112728320826241</v>
       </c>
@@ -18630,7 +18784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:6">
       <c r="B706">
         <v>0.49860370387618502</v>
       </c>
@@ -18647,7 +18801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:6">
       <c r="B707">
         <v>0.95277992392106403</v>
       </c>
@@ -18664,7 +18818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:6">
       <c r="B708">
         <v>0.791026351423742</v>
       </c>
@@ -18681,7 +18835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:6">
       <c r="B709">
         <v>0.28614610098566201</v>
       </c>
@@ -18698,7 +18852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:6">
       <c r="B710">
         <v>0.93545318666214405</v>
       </c>
@@ -18715,7 +18869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:6">
       <c r="B711">
         <v>0.98683873190498395</v>
       </c>
@@ -18732,7 +18886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:6">
       <c r="B712">
         <v>7.2593664945697E-3</v>
       </c>
@@ -18749,7 +18903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:6">
       <c r="B713">
         <v>0.16341015432950501</v>
       </c>
@@ -18766,7 +18920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:6">
       <c r="B714">
         <v>0.15072638840036801</v>
       </c>
@@ -18783,7 +18937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:6">
       <c r="B715">
         <v>0.108267761508428</v>
       </c>
@@ -18800,7 +18954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:6">
       <c r="B716">
         <v>0.28027171585189897</v>
       </c>
@@ -18817,7 +18971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:6">
       <c r="B717">
         <v>0.28406602337064801</v>
       </c>
@@ -18834,7 +18988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:6">
       <c r="B718">
         <v>0.38565388427326402</v>
       </c>
@@ -18851,7 +19005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:6">
       <c r="B719">
         <v>0.12249049723329</v>
       </c>
@@ -18868,7 +19022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:6">
       <c r="B720">
         <v>0.89645479268431705</v>
       </c>
@@ -18885,7 +19039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:6">
       <c r="B721">
         <v>0.36690034750843997</v>
       </c>
@@ -18902,7 +19056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:6">
       <c r="B722">
         <v>0.76905093298557303</v>
       </c>
@@ -18919,7 +19073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:6">
       <c r="B723">
         <v>0.86654957589644099</v>
       </c>
@@ -18936,7 +19090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:6">
       <c r="B724">
         <v>0.76350718309787202</v>
       </c>
@@ -18953,7 +19107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:6">
       <c r="B725">
         <v>9.1940744423498699E-2</v>
       </c>
@@ -18970,7 +19124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:6">
       <c r="B726">
         <v>0.986424228822397</v>
       </c>
@@ -18987,7 +19141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:6">
       <c r="B727">
         <v>0.574627600630925</v>
       </c>
@@ -19004,7 +19158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:6">
       <c r="B728">
         <v>0.60072375860837501</v>
       </c>
@@ -19021,7 +19175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:6">
       <c r="B729">
         <v>0.78957004531520703</v>
       </c>
@@ -19038,7 +19192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:6">
       <c r="B730">
         <v>0.56838907538327599</v>
       </c>
@@ -19055,7 +19209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:6">
       <c r="B731">
         <v>0.36838368152877499</v>
       </c>
@@ -19072,7 +19226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:6">
       <c r="B732">
         <v>0.36798254742044501</v>
       </c>
@@ -19089,7 +19243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:6">
       <c r="B733">
         <v>0.34644183496632402</v>
       </c>
@@ -19106,7 +19260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:6">
       <c r="B734">
         <v>0.71930672344222002</v>
       </c>
@@ -19123,7 +19277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:6">
       <c r="B735">
         <v>3.47704624668887E-3</v>
       </c>
@@ -19140,7 +19294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:6">
       <c r="B736">
         <v>0.26233219462843299</v>
       </c>
@@ -19157,7 +19311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:6">
       <c r="B737">
         <v>0.45387162859693703</v>
       </c>
@@ -19174,7 +19328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:6">
       <c r="B738">
         <v>0.31578204960518302</v>
       </c>
@@ -19191,7 +19345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:6">
       <c r="B739">
         <v>0.91906181443017998</v>
       </c>
@@ -19208,7 +19362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:6">
       <c r="B740">
         <v>0.12509985219974101</v>
       </c>
@@ -19225,7 +19379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:6">
       <c r="B741">
         <v>5.79505948789098E-2</v>
       </c>
@@ -19242,7 +19396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:6">
       <c r="B742">
         <v>0.28321618601449899</v>
       </c>
@@ -19259,7 +19413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:6">
       <c r="B743">
         <v>0.34866340963075998</v>
       </c>
@@ -19276,7 +19430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:6">
       <c r="B744">
         <v>0.90310103204988001</v>
       </c>
@@ -19293,7 +19447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:6">
       <c r="B745">
         <v>0.30536873168991902</v>
       </c>
@@ -19310,7 +19464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:6">
       <c r="B746">
         <v>0.58690233489825805</v>
       </c>
@@ -19327,7 +19481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:6">
       <c r="B747">
         <v>0.14932829584151</v>
       </c>
@@ -19344,7 +19498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:6">
       <c r="B748">
         <v>0.23444779421665701</v>
       </c>
@@ -19361,7 +19515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:6">
       <c r="B749">
         <v>4.9157813570613801E-2</v>
       </c>
@@ -19378,7 +19532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:6">
       <c r="B750">
         <v>0.31932843363136698</v>
       </c>
@@ -19395,7 +19549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:6">
       <c r="B751">
         <v>0.47008021906734798</v>
       </c>
@@ -19412,7 +19566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:6">
       <c r="B752">
         <v>0.118905446562542</v>
       </c>
@@ -19429,7 +19583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:6">
       <c r="B753">
         <v>0.455929729994971</v>
       </c>
@@ -19446,7 +19600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:6">
       <c r="B754">
         <v>4.9286888554973901E-2</v>
       </c>
@@ -19463,7 +19617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:6">
       <c r="B755">
         <v>0.52807324202861206</v>
       </c>
@@ -19480,7 +19634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:6">
       <c r="B756">
         <v>0.838068883037274</v>
       </c>
@@ -19497,7 +19651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:6">
       <c r="B757">
         <v>0.21677624154038</v>
       </c>
@@ -19514,7 +19668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:6">
       <c r="B758">
         <v>2.9295975968304199E-2</v>
       </c>
@@ -19531,7 +19685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:6">
       <c r="B759">
         <v>0.40571088535420202</v>
       </c>
@@ -19548,7 +19702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:6">
       <c r="B760">
         <v>0.26827400761620601</v>
       </c>
@@ -19565,7 +19719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:6">
       <c r="B761">
         <v>0.32246972430218601</v>
       </c>
@@ -19582,7 +19736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:6">
       <c r="B762">
         <v>0.29882713078992301</v>
       </c>
@@ -19599,7 +19753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:6">
       <c r="B763">
         <v>0.85474800962648201</v>
       </c>
@@ -19616,7 +19770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:6">
       <c r="B764">
         <v>0.628218967283937</v>
       </c>
@@ -19633,7 +19787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:6">
       <c r="B765">
         <v>0.51057125833871897</v>
       </c>
@@ -19650,7 +19804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:6">
       <c r="B766">
         <v>0.19797013488707399</v>
       </c>
@@ -19667,7 +19821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:6">
       <c r="B767">
         <v>0.24349410811084901</v>
       </c>
@@ -19684,7 +19838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:6">
       <c r="B768">
         <v>6.4178867884705504E-3</v>
       </c>
@@ -19701,7 +19855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:6">
       <c r="B769">
         <v>0.35423233185217501</v>
       </c>
@@ -19718,7 +19872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:6">
       <c r="B770">
         <v>0.25634119381933601</v>
       </c>
@@ -19735,7 +19889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:6">
       <c r="B771">
         <v>0.60875762662961996</v>
       </c>
@@ -19752,7 +19906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:6">
       <c r="B772">
         <v>0.14191538009549701</v>
       </c>
@@ -19769,7 +19923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:6">
       <c r="B773">
         <v>0.66523610688079005</v>
       </c>
@@ -19786,7 +19940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:6">
       <c r="B774">
         <v>0.40235632815857397</v>
       </c>
@@ -19803,7 +19957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:6">
       <c r="B775">
         <v>1.3991061435443699E-2</v>
       </c>
@@ -19820,7 +19974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:6">
       <c r="B776">
         <v>1.80813460115825E-3</v>
       </c>
@@ -19837,7 +19991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:6">
       <c r="B777">
         <v>0.403833748045759</v>
       </c>
@@ -19854,7 +20008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:6">
       <c r="B778">
         <v>0.95455593346104795</v>
       </c>
@@ -19871,7 +20025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:6">
       <c r="B779">
         <v>0.538698762346419</v>
       </c>
@@ -19888,7 +20042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:6">
       <c r="B780">
         <v>0.98252466260499305</v>
       </c>
@@ -19905,7 +20059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:6">
       <c r="B781">
         <v>0.92197739527825995</v>
       </c>
@@ -19922,7 +20076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:6">
       <c r="B782">
         <v>3.2803977997492399E-2</v>
       </c>
@@ -19939,7 +20093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:6">
       <c r="B783">
         <v>0.61600161906950202</v>
       </c>
@@ -19956,7 +20110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:6">
       <c r="B784">
         <v>0.85015307365238602</v>
       </c>
@@ -19973,7 +20127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:6">
       <c r="B785">
         <v>0.77188755602313597</v>
       </c>
@@ -19990,7 +20144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:6">
       <c r="B786">
         <v>0.816970062686184</v>
       </c>
@@ -20007,7 +20161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:6">
       <c r="B787">
         <v>7.5618484429895896E-2</v>
       </c>
@@ -20024,7 +20178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:6">
       <c r="B788">
         <v>2.95747732782916E-2</v>
       </c>
@@ -20041,7 +20195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:6">
       <c r="B789">
         <v>8.4220016366046202E-2</v>
       </c>
@@ -20058,7 +20212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:6">
       <c r="B790">
         <v>0.36974335515935702</v>
       </c>
@@ -20075,7 +20229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:6">
       <c r="B791">
         <v>0.23973241651928101</v>
       </c>
@@ -20092,7 +20246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:6">
       <c r="B792">
         <v>7.1774069799321202E-2</v>
       </c>
@@ -20109,7 +20263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:6">
       <c r="B793">
         <v>0.39383852605522301</v>
       </c>
@@ -20126,7 +20280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:6">
       <c r="B794">
         <v>0.70898149422418999</v>
       </c>
@@ -20143,7 +20297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:6">
       <c r="B795">
         <v>0.283367562564043</v>
       </c>
@@ -20160,7 +20314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:6">
       <c r="B796">
         <v>0.89151851816164895</v>
       </c>
@@ -20177,7 +20331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:6">
       <c r="B797">
         <v>0.97149737081672805</v>
       </c>
@@ -20194,7 +20348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:6">
       <c r="B798">
         <v>0.40733867377846</v>
       </c>
@@ -20211,7 +20365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:6">
       <c r="B799">
         <v>0.49225860493114199</v>
       </c>
@@ -20228,7 +20382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:6">
       <c r="B800">
         <v>0.44685146492590799</v>
       </c>
@@ -20245,7 +20399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:6">
       <c r="B801">
         <v>7.5434933987119602E-3</v>
       </c>
@@ -20262,7 +20416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:6">
       <c r="B802">
         <v>0.43826537698622903</v>
       </c>
@@ -20279,7 +20433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:6">
       <c r="B803">
         <v>0.61803808393211901</v>
       </c>
@@ -20296,7 +20450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:6">
       <c r="B804">
         <v>0.55672292750921204</v>
       </c>
@@ -20313,7 +20467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:6">
       <c r="B805">
         <v>0.91433873285703005</v>
       </c>
@@ -20330,7 +20484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:6">
       <c r="B806">
         <v>0.34270754142627102</v>
       </c>
@@ -20347,7 +20501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:6">
       <c r="B807">
         <v>0.75149314772644504</v>
       </c>
@@ -20364,7 +20518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:6">
       <c r="B808">
         <v>0.76498388813422802</v>
       </c>
@@ -20381,7 +20535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:6">
       <c r="B809">
         <v>0.37801331051266901</v>
       </c>
@@ -20398,7 +20552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:6">
       <c r="B810">
         <v>0.85123207419227798</v>
       </c>
@@ -20415,7 +20569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:6">
       <c r="B811">
         <v>0.47419060198159402</v>
       </c>
@@ -20432,7 +20586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:6">
       <c r="B812">
         <v>0.33413654949371702</v>
       </c>
@@ -20449,7 +20603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:6">
       <c r="B813">
         <v>0.17121771465102201</v>
       </c>
@@ -20466,7 +20620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:6">
       <c r="B814">
         <v>0.70024242528159097</v>
       </c>
@@ -20483,7 +20637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:6">
       <c r="B815">
         <v>0.42189155984328602</v>
       </c>
@@ -20500,7 +20654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:6">
       <c r="B816">
         <v>0.24704704823793</v>
       </c>
@@ -20517,7 +20671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:6">
       <c r="B817">
         <v>0.118317726314245</v>
       </c>
@@ -20534,7 +20688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:6">
       <c r="B818">
         <v>0.706949893152645</v>
       </c>
@@ -20551,7 +20705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:6">
       <c r="B819">
         <v>0.75870907007652</v>
       </c>
@@ -20568,7 +20722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:6">
       <c r="B820">
         <v>0.228888352060274</v>
       </c>
@@ -20585,7 +20739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:6">
       <c r="B821">
         <v>2.7076352534300199E-2</v>
       </c>
@@ -20602,7 +20756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:6">
       <c r="B822">
         <v>0.50555664957479196</v>
       </c>
@@ -20619,7 +20773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:6">
       <c r="B823">
         <v>9.7815881500817395E-2</v>
       </c>
@@ -20636,7 +20790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:6">
       <c r="B824">
         <v>0.67246281372638095</v>
       </c>
@@ -20653,7 +20807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:6">
       <c r="B825">
         <v>0.87271364434799403</v>
       </c>
@@ -20670,7 +20824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:6">
       <c r="B826">
         <v>0.83820785568754297</v>
       </c>
@@ -20687,7 +20841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:6">
       <c r="B827">
         <v>0.49565881326953198</v>
       </c>
@@ -20704,7 +20858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:6">
       <c r="B828">
         <v>0.94625199606160104</v>
       </c>
@@ -20721,7 +20875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:6">
       <c r="B829">
         <v>3.4276064164255799E-3</v>
       </c>
@@ -20738,7 +20892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:6">
       <c r="B830">
         <v>0.28826921912362402</v>
       </c>
@@ -20755,7 +20909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:6">
       <c r="B831">
         <v>0.51601200181784401</v>
       </c>
@@ -20772,7 +20926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:6">
       <c r="B832">
         <v>0.88643372948198496</v>
       </c>
@@ -20789,7 +20943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:6">
       <c r="B833">
         <v>0.83747585957305903</v>
       </c>
@@ -20806,7 +20960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:6">
       <c r="B834">
         <v>0.73702188949931802</v>
       </c>
@@ -20823,7 +20977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:6">
       <c r="B835">
         <v>0.36092912632699498</v>
       </c>
@@ -20840,7 +20994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:6">
       <c r="B836">
         <v>0.788267082769878</v>
       </c>
@@ -20857,7 +21011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:6">
       <c r="B837">
         <v>0.39649131192241399</v>
       </c>
@@ -20874,7 +21028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:6">
       <c r="B838">
         <v>0.47661602624801602</v>
       </c>
@@ -20891,7 +21045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:6">
       <c r="B839">
         <v>0.89129662278958999</v>
       </c>
@@ -20908,7 +21062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:6">
       <c r="B840">
         <v>0.89934688141208896</v>
       </c>
@@ -20925,7 +21079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:6">
       <c r="B841">
         <v>0.99434625270803401</v>
       </c>
@@ -20942,7 +21096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:6">
       <c r="B842">
         <v>0.36100373837215</v>
       </c>
@@ -20959,7 +21113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:6">
       <c r="B843">
         <v>0.123361613222991</v>
       </c>
@@ -20976,7 +21130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:6">
       <c r="B844">
         <v>0.29894002637828998</v>
       </c>
@@ -20993,7 +21147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:6">
       <c r="B845">
         <v>0.41566525845369101</v>
       </c>
@@ -21010,7 +21164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:6">
       <c r="B846">
         <v>0.43244425235571898</v>
       </c>
@@ -21027,7 +21181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:6">
       <c r="B847">
         <v>0.26270076732481201</v>
       </c>
@@ -21044,7 +21198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:6">
       <c r="B848">
         <v>0.345188894891096</v>
       </c>
@@ -21061,7 +21215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:6">
       <c r="B849">
         <v>0.202117981355391</v>
       </c>
@@ -21078,7 +21232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:6">
       <c r="B850">
         <v>0.46491795080836701</v>
       </c>
@@ -21095,7 +21249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:6">
       <c r="B851">
         <v>0.37128187558998399</v>
       </c>
@@ -21112,7 +21266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:6">
       <c r="B852">
         <v>0.40499292246927299</v>
       </c>
@@ -21129,7 +21283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:6">
       <c r="B853">
         <v>0.73535244417058898</v>
       </c>
@@ -21146,7 +21300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:6">
       <c r="B854">
         <v>0.84711553162158704</v>
       </c>
@@ -21163,7 +21317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:6">
       <c r="B855">
         <v>0.92002219468287005</v>
       </c>
@@ -21180,7 +21334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:6">
       <c r="B856">
         <v>0.54832435979900496</v>
       </c>
@@ -21197,7 +21351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:6">
       <c r="B857">
         <v>0.38656436785693099</v>
       </c>
@@ -21214,7 +21368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:6">
       <c r="B858">
         <v>0.31541786797964799</v>
       </c>
@@ -21231,7 +21385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:6">
       <c r="B859">
         <v>0.66935483576938604</v>
       </c>
@@ -21248,7 +21402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:6">
       <c r="B860">
         <v>0.19936203808918099</v>
       </c>
@@ -21265,7 +21419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:6">
       <c r="B861">
         <v>0.82600348773167998</v>
       </c>
@@ -21282,7 +21436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:6">
       <c r="B862">
         <v>0.20105276801997499</v>
       </c>
@@ -21299,7 +21453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:6">
       <c r="B863">
         <v>0.205269682802947</v>
       </c>
@@ -21316,7 +21470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:6">
       <c r="B864">
         <v>0.56128974371479701</v>
       </c>
@@ -21333,7 +21487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:6">
       <c r="B865">
         <v>9.9200754551401094E-2</v>
       </c>
@@ -21350,7 +21504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:6">
       <c r="B866">
         <v>0.117833444799226</v>
       </c>
@@ -21367,7 +21521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:6">
       <c r="B867">
         <v>0.49094320269170399</v>
       </c>
@@ -21384,7 +21538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:6">
       <c r="B868">
         <v>0.63044301693174098</v>
       </c>
@@ -21401,7 +21555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:6">
       <c r="B869">
         <v>0.39040244382107703</v>
       </c>
@@ -21418,7 +21572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:6">
       <c r="B870">
         <v>0.47175918648905202</v>
       </c>
@@ -21435,7 +21589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:6">
       <c r="B871">
         <v>0.633121703935554</v>
       </c>
@@ -21452,7 +21606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:6">
       <c r="B872">
         <v>0.57964711315615203</v>
       </c>
@@ -21469,7 +21623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:6">
       <c r="B873">
         <v>0.72280016287380999</v>
       </c>
@@ -21486,7 +21640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:6">
       <c r="B874">
         <v>5.3153203590238202E-2</v>
       </c>
@@ -21503,7 +21657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:6">
       <c r="B875">
         <v>0.77952137311754999</v>
       </c>
@@ -21520,7 +21674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:6">
       <c r="B876">
         <v>0.55206309502452799</v>
       </c>
@@ -21537,7 +21691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="877" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:6">
       <c r="B877">
         <v>0.28278478731787998</v>
       </c>
@@ -21554,7 +21708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:6">
       <c r="B878">
         <v>5.0597519747283798E-2</v>
       </c>
@@ -21571,7 +21725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:6">
       <c r="B879">
         <v>0.38418068312112602</v>
       </c>
@@ -21588,7 +21742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:6">
       <c r="B880">
         <v>0.79349151510934801</v>
       </c>
@@ -21605,7 +21759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:6">
       <c r="B881">
         <v>0.29002134471201502</v>
       </c>
@@ -21622,7 +21776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:6">
       <c r="B882">
         <v>0.282868950594026</v>
       </c>
@@ -21639,7 +21793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:6">
       <c r="B883">
         <v>0.28426798003786902</v>
       </c>
@@ -21656,7 +21810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:6">
       <c r="B884">
         <v>0.95113404142958802</v>
       </c>
@@ -21673,7 +21827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:6">
       <c r="B885">
         <v>0.80835072813272202</v>
       </c>
@@ -21690,7 +21844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:6">
       <c r="B886">
         <v>0.36055692723018301</v>
       </c>
@@ -21707,7 +21861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:6">
       <c r="B887">
         <v>0.44434491953448702</v>
       </c>
@@ -21724,7 +21878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:6">
       <c r="B888">
         <v>0.58799910650764298</v>
       </c>
@@ -21741,7 +21895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:6">
       <c r="B889">
         <v>6.4738045870508604E-2</v>
       </c>
@@ -21758,7 +21912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:6">
       <c r="B890">
         <v>0.93641162640712206</v>
       </c>
@@ -21775,7 +21929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:6">
       <c r="B891">
         <v>0.68991954926642596</v>
       </c>
@@ -21792,7 +21946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:6">
       <c r="B892">
         <v>0.67498245036351301</v>
       </c>
@@ -21809,7 +21963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:6">
       <c r="B893">
         <v>0.236018778294315</v>
       </c>
@@ -21826,7 +21980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:6">
       <c r="B894">
         <v>0.99170249485959805</v>
       </c>
@@ -21843,7 +21997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:6">
       <c r="B895">
         <v>0.41155014228327202</v>
       </c>
@@ -21860,7 +22014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:6">
       <c r="B896">
         <v>0.81989018536554303</v>
       </c>
@@ -21877,7 +22031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:6">
       <c r="B897">
         <v>0.97393291514509195</v>
       </c>
@@ -21894,7 +22048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:6">
       <c r="B898">
         <v>0.82706859392677701</v>
       </c>
@@ -21911,7 +22065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:6">
       <c r="B899">
         <v>0.40389259209186301</v>
       </c>
@@ -21928,7 +22082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:6">
       <c r="B900">
         <v>0.37914644680721599</v>
       </c>
@@ -21945,7 +22099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:6">
       <c r="B901">
         <v>0.49239492676096502</v>
       </c>
@@ -21962,7 +22116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:6">
       <c r="B902">
         <v>0.397971531480386</v>
       </c>
@@ -21979,7 +22133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:6">
       <c r="B903">
         <v>0.54698789256216995</v>
       </c>
@@ -21996,7 +22150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:6">
       <c r="B904">
         <v>0.49367941410309601</v>
       </c>
@@ -22013,7 +22167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="905" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:6">
       <c r="B905">
         <v>0.39947577912791499</v>
       </c>
@@ -22030,7 +22184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:6">
       <c r="B906">
         <v>0.19208571649926101</v>
       </c>
@@ -22047,7 +22201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="907" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:6">
       <c r="B907">
         <v>0.82754910809608695</v>
       </c>
@@ -22064,7 +22218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:6">
       <c r="B908">
         <v>0.713480039445476</v>
       </c>
@@ -22081,7 +22235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:6">
       <c r="B909">
         <v>0.117285757899763</v>
       </c>
@@ -22098,7 +22252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:6">
       <c r="B910">
         <v>0.64580103159964797</v>
       </c>
@@ -22115,7 +22269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:6">
       <c r="B911">
         <v>0.45843451992852802</v>
       </c>
@@ -22132,7 +22286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:6">
       <c r="B912">
         <v>0.204708680001218</v>
       </c>
@@ -22149,7 +22303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:6">
       <c r="B913">
         <v>0.81522082006156604</v>
       </c>
@@ -22166,7 +22320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:6">
       <c r="B914">
         <v>0.37208780398865099</v>
       </c>
@@ -22183,7 +22337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:6">
       <c r="B915">
         <v>0.60391320681743998</v>
       </c>
@@ -22200,7 +22354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:6">
       <c r="B916">
         <v>0.45768847969221699</v>
       </c>
@@ -22217,7 +22371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:6">
       <c r="B917">
         <v>0.96795324739020305</v>
       </c>
@@ -22234,7 +22388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:6">
       <c r="B918">
         <v>0.97792502500692602</v>
       </c>
@@ -22251,7 +22405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:6">
       <c r="B919">
         <v>0.85526176037977397</v>
       </c>
@@ -22268,7 +22422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:6">
       <c r="B920">
         <v>0.442342130534569</v>
       </c>
@@ -22285,7 +22439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:6">
       <c r="B921">
         <v>0.98465305628067501</v>
       </c>
@@ -22302,7 +22456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:6">
       <c r="B922">
         <v>0.41430572841544999</v>
       </c>
@@ -22319,7 +22473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:6">
       <c r="B923">
         <v>4.0912230710679898E-2</v>
       </c>
@@ -22336,7 +22490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:6">
       <c r="B924">
         <v>0.38778308523656002</v>
       </c>
@@ -22353,7 +22507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:6">
       <c r="B925">
         <v>0.425956500720506</v>
       </c>
@@ -22370,7 +22524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:6">
       <c r="B926">
         <v>0.16381186191886599</v>
       </c>
@@ -22387,7 +22541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:6">
       <c r="B927">
         <v>0.335932165004724</v>
       </c>
@@ -22404,7 +22558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:6">
       <c r="B928">
         <v>0.62856417361989803</v>
       </c>
@@ -22421,7 +22575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:6">
       <c r="B929">
         <v>0.59409650380541301</v>
       </c>
@@ -22438,7 +22592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:6">
       <c r="B930">
         <v>0.97118505248299303</v>
       </c>
@@ -22455,7 +22609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:6">
       <c r="B931">
         <v>0.83353385013840198</v>
       </c>
@@ -22472,7 +22626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:6">
       <c r="B932">
         <v>0.26245447850541898</v>
       </c>
@@ -22489,7 +22643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:6">
       <c r="B933">
         <v>3.8261916562599203E-2</v>
       </c>
@@ -22506,7 +22660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:6">
       <c r="B934">
         <v>0.24321098102215999</v>
       </c>
@@ -22523,7 +22677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:6">
       <c r="B935">
         <v>6.5921932736081601E-2</v>
       </c>
@@ -22540,7 +22694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:6">
       <c r="B936">
         <v>0.89544927817334896</v>
       </c>
@@ -22557,7 +22711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:6">
       <c r="B937">
         <v>0.77256371000889901</v>
       </c>
@@ -22574,7 +22728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:6">
       <c r="B938">
         <v>0.208514727448048</v>
       </c>
@@ -22591,7 +22745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:6">
       <c r="B939">
         <v>0.66447875290284597</v>
       </c>
@@ -22608,7 +22762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="940" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:6">
       <c r="B940">
         <v>0.90750372664072199</v>
       </c>
@@ -22625,7 +22779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:6">
       <c r="B941">
         <v>0.82085722852614296</v>
       </c>
@@ -22642,7 +22796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:6">
       <c r="B942">
         <v>0.68730852307734103</v>
       </c>
@@ -22659,7 +22813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:6">
       <c r="B943">
         <v>0.349789192180742</v>
       </c>
@@ -22676,7 +22830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:6">
       <c r="B944">
         <v>0.68743912676152097</v>
       </c>
@@ -22693,7 +22847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:6">
       <c r="B945">
         <v>0.87104731859800799</v>
       </c>
@@ -22710,7 +22864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:6">
       <c r="B946">
         <v>0.30733260764471698</v>
       </c>
@@ -22727,7 +22881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:6">
       <c r="B947">
         <v>0.68972466153223699</v>
       </c>
@@ -22744,7 +22898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:6">
       <c r="B948">
         <v>0.14709889730564499</v>
       </c>
@@ -22761,7 +22915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:6">
       <c r="B949">
         <v>0.818601147620729</v>
       </c>
@@ -22778,7 +22932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:6">
       <c r="B950">
         <v>0.62196646579408599</v>
       </c>
@@ -22795,7 +22949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:6">
       <c r="B951">
         <v>0.58626325090457598</v>
       </c>
@@ -22812,7 +22966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:6">
       <c r="B952">
         <v>0.38003378478199101</v>
       </c>
@@ -22829,7 +22983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:6">
       <c r="B953">
         <v>0.23688985067386401</v>
       </c>
@@ -22846,7 +23000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:6">
       <c r="B954">
         <v>0.60056093200077698</v>
       </c>
@@ -22863,7 +23017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:6">
       <c r="B955">
         <v>0.12930630739943</v>
       </c>
@@ -22880,7 +23034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:6">
       <c r="B956">
         <v>0.198360146263866</v>
       </c>
@@ -22897,7 +23051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:6">
       <c r="B957">
         <v>0.16277449671801</v>
       </c>
@@ -22914,7 +23068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:6">
       <c r="B958">
         <v>0.71460853094238197</v>
       </c>
@@ -22931,7 +23085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:6">
       <c r="B959">
         <v>0.70517448646532499</v>
       </c>
@@ -22948,7 +23102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:6">
       <c r="B960">
         <v>0.65823554736809897</v>
       </c>
@@ -22965,7 +23119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:6">
       <c r="B961">
         <v>0.271915751409262</v>
       </c>
@@ -22982,7 +23136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:6">
       <c r="B962">
         <v>0.92259978124066899</v>
       </c>
@@ -22999,7 +23153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:6">
       <c r="B963">
         <v>0.56161132781383305</v>
       </c>
@@ -23016,7 +23170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:6">
       <c r="B964">
         <v>0.58197622677453298</v>
       </c>
@@ -23033,7 +23187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:6">
       <c r="B965">
         <v>0.962903951805267</v>
       </c>
@@ -23050,7 +23204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:6">
       <c r="B966">
         <v>2.9548852696883801E-2</v>
       </c>
@@ -23067,7 +23221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:6">
       <c r="B967">
         <v>0.46299981174080301</v>
       </c>
@@ -23084,7 +23238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="968" spans="2:6">
       <c r="B968">
         <v>2.10037173050279E-2</v>
       </c>
@@ -23101,7 +23255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="969" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="969" spans="2:6">
       <c r="B969">
         <v>0.81460055746626603</v>
       </c>
@@ -23118,7 +23272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="970" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="970" spans="2:6">
       <c r="B970">
         <v>0.86843691352294305</v>
       </c>
@@ -23135,7 +23289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="971" spans="2:6">
       <c r="B971">
         <v>0.33370156623856201</v>
       </c>
@@ -23152,7 +23306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="972" spans="2:6">
       <c r="B972">
         <v>0.178943705656431</v>
       </c>
@@ -23169,7 +23323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="973" spans="2:6">
       <c r="B973">
         <v>0.55580285196325896</v>
       </c>
@@ -23186,7 +23340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="974" spans="2:6">
       <c r="B974">
         <v>0.22300352843563401</v>
       </c>
@@ -23203,7 +23357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="975" spans="2:6">
       <c r="B975">
         <v>3.9017482178246E-2</v>
       </c>
@@ -23220,7 +23374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="976" spans="2:6">
       <c r="B976">
         <v>0.67654537628018396</v>
       </c>
@@ -23237,7 +23391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:6">
       <c r="B977">
         <v>0.78617383410636799</v>
       </c>
@@ -23254,7 +23408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:6">
       <c r="B978">
         <v>0.46060164767277301</v>
       </c>
@@ -23271,7 +23425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="979" spans="2:6">
       <c r="B979">
         <v>0.95626972924534304</v>
       </c>
@@ -23288,7 +23442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="980" spans="2:6">
       <c r="B980">
         <v>0.14357174904244199</v>
       </c>
@@ -23305,7 +23459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:6">
       <c r="B981">
         <v>0.91626538195206997</v>
       </c>
@@ -23322,7 +23476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:6">
       <c r="B982">
         <v>0.76742392351495203</v>
       </c>
@@ -23339,7 +23493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:6">
       <c r="B983">
         <v>0.33375999047343002</v>
       </c>
@@ -23356,7 +23510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="984" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:6">
       <c r="B984">
         <v>9.3377216189103995E-2</v>
       </c>
@@ -23373,7 +23527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="985" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:6">
       <c r="B985">
         <v>6.5992084434474504E-2</v>
       </c>
@@ -23390,7 +23544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="986" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:6">
       <c r="B986">
         <v>0.10835476360658999</v>
       </c>
@@ -23407,7 +23561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:6">
       <c r="B987">
         <v>0.20973698116799</v>
       </c>
@@ -23424,7 +23578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:6">
       <c r="B988">
         <v>0.49657766084285099</v>
       </c>
@@ -23441,7 +23595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:6">
       <c r="B989">
         <v>0.84299626806530403</v>
       </c>
@@ -23458,7 +23612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:6">
       <c r="B990">
         <v>0.26066339572055802</v>
       </c>
@@ -23475,7 +23629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="991" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:6">
       <c r="B991">
         <v>0.21894026296923599</v>
       </c>
@@ -23492,7 +23646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="992" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:6">
       <c r="B992">
         <v>0.12504110337955501</v>
       </c>
@@ -23509,7 +23663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="993" spans="2:6">
       <c r="B993">
         <v>0.89513762391649998</v>
       </c>
@@ -23526,7 +23680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="994" spans="2:6">
       <c r="B994">
         <v>0.27186163071603597</v>
       </c>
@@ -23543,7 +23697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="995" spans="2:6">
       <c r="B995">
         <v>0.18253272353500399</v>
       </c>
@@ -23560,7 +23714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="996" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="996" spans="2:6">
       <c r="B996">
         <v>0.56967459295284595</v>
       </c>
@@ -23577,7 +23731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="997" spans="2:6">
       <c r="B997">
         <v>9.9317290029108302E-2</v>
       </c>
@@ -23594,7 +23748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="998" spans="2:6">
       <c r="B998">
         <v>0.170971096723606</v>
       </c>
@@ -23611,7 +23765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="999" spans="2:6">
       <c r="B999">
         <v>0.692383509082516</v>
       </c>
@@ -23628,7 +23782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1000" spans="2:6">
       <c r="B1000">
         <v>0.72270273448585998</v>
       </c>
@@ -23645,7 +23799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1001" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1001" spans="2:6">
       <c r="B1001">
         <v>9.7165600960547896E-2</v>
       </c>
@@ -23662,7 +23816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1002" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1002" spans="2:6">
       <c r="B1002">
         <v>0.92319501505191703</v>
       </c>
@@ -23680,8 +23834,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23689,24 +23846,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
